--- a/youtubers1.xlsx
+++ b/youtubers1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="18828" windowHeight="8112"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="18828" windowHeight="8112" activeTab="5"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="옥냥이" sheetId="1" r:id="rId4"/>
@@ -24,92 +24,335 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="350">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="351">
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=FQeFn91RRa8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=joM6fNK6vQs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=PSqmxj84Ui0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=fshLuG0QHXM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=jiaLtEhh7eQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=WzoN91KC7-g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=Ye2iwOMZb4I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=KD1wHOJwlh4&amp;t=1s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=Rq7m8h7Nd_w&amp;t=1s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=uCdZ1Cf3g38&amp;t=1s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=kORMXZYGuis&amp;t=131s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=7wFETNwoXq8&amp;t=1s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=f_ILSCPVkpI&amp;t=1s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=4nqbDxCvzCg&amp;t=720s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=XbFx5qyhL5Q&amp;t=1s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=pe6Oi0TgD-8&amp;t=276s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=GpMa3J53DH0&amp;t=1s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=PVZt7u_1LP0&amp;t=1s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=jpJFTJ9XXEM&amp;t=1s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=inUr6icHUwo&amp;t=1s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=IiE24CCNLRE&amp;t=2s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=FlndWIhP6ko&amp;t=1s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=8Tkz2dlriP8&amp;t=1s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=0Yg-2w2cIEc&amp;t=1s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=eFNwXNBjMHg&amp;t=4s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=ersUTU5rvrg&amp;t=5966s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=cbTUmkLMA2M&amp;t=1s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=6DDcgWWTqIU&amp;t=1s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=4OkiHmG89qI&amp;t=2s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=kM0RI5kUbtU&amp;t=1s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=8THoAylPgWM&amp;t=1s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=xOr-eNr6pTE&amp;t=1s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=tEy2dgTbAUI&amp;t=1s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=NtYYLUmD44s&amp;t=1015s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=7ekBpq058hg&amp;t=1s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=ASlIlLDVYSU&amp;t=1s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=_r2G6m9VCZ0&amp;t=682s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=bZxh_r5wV0s&amp;t=353s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=eUK0BZXgnZU&amp;t=1s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=RkAf2RXgmjU&amp;t=121s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=rVpWwa4_qJ4&amp;t=1s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=-flx5c_zCAo&amp;t=1s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=JCzKSqnADS4&amp;t=1s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=Ht9RF9IjP44&amp;t=1s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>youtuber</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공포</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리듬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>꽁트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>야구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CCG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>골프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패러디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼행시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RPG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전략</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Q&amp;A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대결</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몰카</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ctg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월드컵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생존</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FPS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>토크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>챌린지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배틀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스포츠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이싱</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>퀴즈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플래시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>액션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>농구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건설</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TPS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>축구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=aaMrdPsJ8zw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=RToKnWz2fLo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=4tDuEan3mmw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=_bQcxb2pfSQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=REcMcPMSWE0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=GLBg1c_l7tM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=GDZ2XOWaAT0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=be02CMVtDSA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=oHKmO9CKpZ0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=Oc6iziMCeuw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=fKl9AdpzMxo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=2Fe4XAGZ9Ds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=5F6hgLOlxkE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=Vva7eJsxwt8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=zqxXOBRrJdk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=_hRSu-gatDE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=jfe600E_r4w</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=RRvHqIUMoYY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=D9eD7tJdyvQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=26ZXR36M4Ro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=YprqOmwTS44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=PDXsjuHoug0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=MkMkIifkOQw</x:t>
+  </x:si>
   <x:si>
     <x:t>https://www.youtube.com/watch?v=WK1XUH97R2s</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.youtube.com/watch?v=MkMkIifkOQw</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://www.youtube.com/watch?v=0V0VMCu0bCQ</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.youtube.com/watch?v=oHKmO9CKpZ0</x:t>
+    <x:t>https://www.youtube.com/watch?v=5h0P3lzKPXI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=36cPFqy77WE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=B5x_7ZmWFLY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=aJQ8C8PIfLc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=69z-zbhOmdg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=MpGa1SMjCLg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=TAO1XU3eb0E</x:t>
   </x:si>
   <x:si>
     <x:t>https://www.youtube.com/watch?v=BTtnTjZTekk</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.youtube.com/watch?v=D9eD7tJdyvQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=RRvHqIUMoYY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=YprqOmwTS44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=26ZXR36M4Ro</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=GDZ2XOWaAT0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=Oc6iziMCeuw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=5F6hgLOlxkE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=2Fe4XAGZ9Ds</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=Vva7eJsxwt8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=zqxXOBRrJdk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=PDXsjuHoug0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=fKl9AdpzMxo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=aJQ8C8PIfLc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=_hRSu-gatDE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=5h0P3lzKPXI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=69z-zbhOmdg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=jfe600E_r4w</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=be02CMVtDSA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=GLBg1c_l7tM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=36cPFqy77WE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=B5x_7ZmWFLY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=MpGa1SMjCLg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=TAO1XU3eb0E</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://www.youtube.com/watch?v=6j967D2qV0w</x:t>
   </x:si>
   <x:si>
@@ -119,103 +362,103 @@
     <x:t>https://www.youtube.com/watch?v=q7dFWj9luP4</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.youtube.com/watch?v=REcMcPMSWE0</x:t>
+    <x:t>https://www.youtube.com/watch?v=YK4EfklvKZk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=L3NTWnh_fq4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=O6H2epVLQNA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=nvBsLBjp9c4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=ucAO1vdsWkU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=dJbDDc6NUlU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=hrdXJlZOAlc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=GXCG6R-TlTI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=f61zBPNfG40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=b5SsL9W35Mg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=Viq7VT4b1bc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=uu8_1Gw5GVw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=echFQpfQxxQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=AYTPu5XOaHY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=qFmpVq6Culw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=xj7KMHwZl8U</x:t>
   </x:si>
   <x:si>
     <x:t>https://www.youtube.com/watch?v=6f2qy_rvk0s</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.youtube.com/watch?v=GXCG6R-TlTI</x:t>
+    <x:t>https://www.youtube.com/watch?v=IlCFIqmLNGI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=9Qd-Jp2gcmU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=5xaQzZOOwhg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=6QNJq-4gsbE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=AmfuBiBoj_Q</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=-Ct3q0LnCmI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=AQhsumODBbk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=5cFPIktjS34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=Joy5DkCtvHE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=0aTJbEVca5c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=mSDp5Dwap6M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=LpDdrN8YB_E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=R8yhJ6GoIz8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=HZI0Y8t-NjE</x:t>
   </x:si>
   <x:si>
     <x:t>https://www.youtube.com/watch?v=Jwc13pkdrXg</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.youtube.com/watch?v=ucAO1vdsWkU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=f61zBPNfG40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=IlCFIqmLNGI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=b5SsL9W35Mg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=R8yhJ6GoIz8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=L3NTWnh_fq4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=HZI0Y8t-NjE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=AYTPu5XOaHY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=Viq7VT4b1bc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=YK4EfklvKZk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=mSDp5Dwap6M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=-Ct3q0LnCmI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=9Qd-Jp2gcmU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=dJbDDc6NUlU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=AQhsumODBbk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=nvBsLBjp9c4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=uu8_1Gw5GVw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=hrdXJlZOAlc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=echFQpfQxxQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=O6H2epVLQNA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=5cFPIktjS34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=qFmpVq6Culw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=Joy5DkCtvHE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=xj7KMHwZl8U</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=0aTJbEVca5c</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=5xaQzZOOwhg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=6QNJq-4gsbE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=LpDdrN8YB_E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=AmfuBiBoj_Q</x:t>
+    <x:t>https://www.youtube.com/watch?v=GU8swVux0dk</x:t>
   </x:si>
   <x:si>
     <x:t>https://www.youtube.com/watch?v=y97mwOpzzlc</x:t>
@@ -227,853 +470,613 @@
     <x:t>https://www.youtube.com/watch?v=oHOr5oZp7fM</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.youtube.com/watch?v=GU8swVux0dk</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://www.youtube.com/watch?v=kbIOYSnjXo8</x:t>
   </x:si>
   <x:si>
     <x:t>https://www.youtube.com/watch?v=hGA-TVFXglc</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.youtube.com/watch?v=4tDuEan3mmw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=_bQcxb2pfSQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=RToKnWz2fLo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=aaMrdPsJ8zw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=WzoN91KC7-g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=fshLuG0QHXM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=PSqmxj84Ui0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=jiaLtEhh7eQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=FQeFn91RRa8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=joM6fNK6vQs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=Ye2iwOMZb4I</x:t>
+    <x:t>likely_return*1000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쓸떼없는 토론하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24시간(음식)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>views*1000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24시간(생활)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>likes*100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24시간(역할)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/OVqygaiU7dA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/i_OQeibwOYk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/cm0bG0nH6hc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/bH5B_GGGU70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/uwiw3__f-qk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/HhUASrT2D-g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/pxuAFtaerBc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/tLMb1e-jXnk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/Olnzh_ltDIc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/ppi2rqD3yZg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/Exd9KtbqTug</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/fCbsYu3djOM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/BCucV2JUEvM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/DV3Qnwhkutc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/rOV5fxBdAio</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/ClOkaKBPBsg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/PjDv_3QAT3Q</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/Y6mEvIQ5GLY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/zMHuGsJDRVI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/ACRA2rNBfdc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/7mEn3_TJL8M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/mAtzBf9r1O8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/VcmTnw-djNY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/dpOWXZcQf3I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/L36wMoAu0kU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/dNLofAPhoqQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/ZDA5cgA9-UM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/7C0vn12p3Z8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/kuzeX1nrboU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/DreATbi0Ijw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/rqhAcwMM8JM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/Uy2VItdU0Hk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/VW1h_T7qh_A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/fVBXFX2g4W8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/QpO3rreSJl4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/7egUUetW560</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/A63o9yVYMNk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/8u37nKXtRj4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/QrB--kt6QoI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/o3eAl-wJyzg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/GG--GtONqkQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/VYIontYLUTg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/Se1zM2eg7vE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/DAB5DJ8UucA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/etnin3JsRQc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/hTX_ZTBVL0U</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/v2WUA2_CAPk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/JM7OxgCfUmo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/06mcjCDvZKA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/8Gh0sZps2MU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/aEy6g_s_XOE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/wzs2DmYTcSo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/FuGAZhuczrs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/gjwK1TQtSP4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/21xeTHEuspc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/bqAiVeVwBjI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/QSUTGOnUFX8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/fkylmaRa3i8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/VK7epdwfW0Y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/JO6OyXbVsFs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/Y2I3S4U2pzQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/cuejYOmf8HE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/uX3GltwMiaA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/6nMNHF0dPHs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/3IE2EU861EI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/9G7nndXb9Sg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/Lpu8YQ_UIBg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/eXZWt63OsBc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/u9IqPwbFonk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/D-lVuuXb3EQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/njcuwDnynt4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/K8jMgzlvFAU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/7oxVJ-onNbc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/W-pI-wiGXIg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/hrCoG7U2w1g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/h0Z3BoL__pk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/igGS8DFlm1E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/mM5g8c12h_Q</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/ErB6B7y2nsc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/IH48CrJMCiw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/qDI6AUD5azA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/177Vj1KXD2c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/p4oXciXKJBU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/2fsKN1zxAFI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/grosRM0vV8E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/83F2fVPVea4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/Ti-gcYajNb4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/X8qyDt4jV8E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/P9XUc6KMMoQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/SsUCJydkcrs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/_bf8fxlDsYY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/DBiIjdrrguI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/3KR9shY0xGw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/6-CVafQPUHM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/LuryyZROjJ4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/SV2JUOb1gVg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/fNgDEyzbRwE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/WGgXNUAW8-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/B049BFnxiFo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/nu_uWb6u8aI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/UkxVf5_uKaA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/danjfvxOAHM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/yMg5VghyDks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/YLEBLb52EOQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/LY2-Sqhm6zU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/BIEfNVleWUw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/gQ5KfXFjaco</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/bk6h-ylOpbk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/OB_LYLpSYD0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/GYDX4GQtwNU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/MXtzfeYdA0Y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/-b8SYM1uKmM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/d-kdQASpVjU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/riuIOUJ1Yok</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/kAzB8F0GOtM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/x3J98hG977A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시뮬레이션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하이라이트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>link</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개그 시상식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성대모사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어드벤처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>복불복 게임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서바이벌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선물 교환하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오토배틀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>할로윈 특집</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=gKHmW6FBZCg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=ps1-lC0hJuc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=LOYoFaTzP5o</x:t>
   </x:si>
   <x:si>
     <x:t>https://www.youtube.com/watch?v=9405uSYwFMI</x:t>
   </x:si>
   <x:si>
+    <x:t>https://www.youtube.com/watch?v=vUHH60gHrzQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=eVoQ7DHOUtI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=4hWyt7xqxOY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=KDd7RG-ny_8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=UDIIeBiKMqQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=6e0vUDa6np0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=kOvwOxAAH6c</x:t>
+  </x:si>
+  <x:si>
     <x:t>https://www.youtube.com/watch?v=JlytszEKbXU</x:t>
   </x:si>
   <x:si>
+    <x:t>https://www.youtube.com/watch?v=aim0TKsoqt4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=pukBPzYSNTU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=wwV4ccszQaY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=j5tUaGMTVB0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=iNMKc1Xe1JQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=yDi8KwyyHxU</x:t>
+  </x:si>
+  <x:si>
     <x:t>https://www.youtube.com/watch?v=0BQ-KPWiXyY</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.youtube.com/watch?v=UDIIeBiKMqQ</x:t>
+    <x:t>https://www.youtube.com/watch?v=HdgmICiqKAI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=lKjfvfnaNhk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=LqUl47nO9vY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=0_c12dFqK_8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=Ikulkd9HxJ0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=5lhUFjkufCs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=HFvjKgN-8gE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=hgWHibd82nQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=5vVnsPJM13k</x:t>
   </x:si>
   <x:si>
     <x:t>https://www.youtube.com/watch?v=WFO53k-YfCg</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.youtube.com/watch?v=vUHH60gHrzQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=LqUl47nO9vY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=KDd7RG-ny_8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=0_c12dFqK_8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=Ikulkd9HxJ0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=HdgmICiqKAI</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://www.youtube.com/watch?v=uJWUhc21jn4</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.youtube.com/watch?v=LOYoFaTzP5o</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=6e0vUDa6np0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=gKHmW6FBZCg</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://www.youtube.com/watch?v=kwhL5JeaXBY</x:t>
   </x:si>
   <x:si>
     <x:t>https://www.youtube.com/watch?v=0aHHbhvquoU</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.youtube.com/watch?v=yDi8KwyyHxU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=kOvwOxAAH6c</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=aim0TKsoqt4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=ps1-lC0hJuc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=5vVnsPJM13k</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=5lhUFjkufCs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=iNMKc1Xe1JQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=HFvjKgN-8gE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=pukBPzYSNTU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=wwV4ccszQaY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=j5tUaGMTVB0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=lKjfvfnaNhk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=eVoQ7DHOUtI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=4hWyt7xqxOY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=hgWHibd82nQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=KD1wHOJwlh4&amp;t=1s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=pe6Oi0TgD-8&amp;t=276s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=4nqbDxCvzCg&amp;t=720s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=GpMa3J53DH0&amp;t=1s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=XbFx5qyhL5Q&amp;t=1s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=7wFETNwoXq8&amp;t=1s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=PVZt7u_1LP0&amp;t=1s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=jpJFTJ9XXEM&amp;t=1s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=Rq7m8h7Nd_w&amp;t=1s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=uCdZ1Cf3g38&amp;t=1s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=kORMXZYGuis&amp;t=131s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=f_ILSCPVkpI&amp;t=1s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=ersUTU5rvrg&amp;t=5966s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=8Tkz2dlriP8&amp;t=1s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=inUr6icHUwo&amp;t=1s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=tEy2dgTbAUI&amp;t=1s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=RkAf2RXgmjU&amp;t=121s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=cbTUmkLMA2M&amp;t=1s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=ASlIlLDVYSU&amp;t=1s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=xOr-eNr6pTE&amp;t=1s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=6DDcgWWTqIU&amp;t=1s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=IiE24CCNLRE&amp;t=2s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=NtYYLUmD44s&amp;t=1015s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=7ekBpq058hg&amp;t=1s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=4OkiHmG89qI&amp;t=2s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=8THoAylPgWM&amp;t=1s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=_r2G6m9VCZ0&amp;t=682s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=rVpWwa4_qJ4&amp;t=1s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=bZxh_r5wV0s&amp;t=353s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=eUK0BZXgnZU&amp;t=1s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=Ht9RF9IjP44&amp;t=1s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=kM0RI5kUbtU&amp;t=1s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=FlndWIhP6ko&amp;t=1s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=0Yg-2w2cIEc&amp;t=1s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=eFNwXNBjMHg&amp;t=4s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=-flx5c_zCAo&amp;t=1s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=JCzKSqnADS4&amp;t=1s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개그 시상식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>link</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시뮬레이션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하이라이트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어드벤처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성대모사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선물 교환하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>할로윈 특집</x:t>
-  </x:si>
-  <x:si>
-    <x:t>복불복 게임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서바이벌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오토배틀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>likely_return*1000</x:t>
+    <x:t>https://youtu.be/KNwFN0a8_YM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/vNM6znKnV_w</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/Y9SU1gp8kzM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/5uZ78xEWB8w</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/TEAeN9LlpiA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/f3RJl8jPVgU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/5kyki1iNx0Y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/gfsi_d_ImKI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/VkSYuagC1jc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/ekTmvPebxUg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/L4Gt9zIyOsA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/-DP6rU4-hEI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/gL5W66Cj58w</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/gxlWWs6h2Ow</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/eNftSn7vUx4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/NhumXqcWFUI</x:t>
   </x:si>
   <x:si>
     <x:t>https://youtu.be/M1EjeWdK94I</x:t>
   </x:si>
   <x:si>
-    <x:t>views*1000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>contents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24시간(생활)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24시간(음식)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24시간(역할)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>likes*100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쓸떼없는 토론하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리듬</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공포</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CCG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>꽁트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>골프</x:t>
-  </x:si>
-  <x:si>
-    <x:t>야구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼행시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RPG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패러디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ctg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생존</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>토크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>챌린지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몰카</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전략</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Q&amp;A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대결</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월드컵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FPS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배틀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스포츠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이싱</x:t>
-  </x:si>
-  <x:si>
-    <x:t>액션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건설</x:t>
-  </x:si>
-  <x:si>
-    <x:t>플래시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>축구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TPS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>농구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>퀴즈</x:t>
+    <x:t>https://youtu.be/aDxa_lu61sI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/Ku4KyOsSrsU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/msECp-vTfsQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/zHApkRhu_Bo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/W5rFvh8b7FY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/lghcF-oaTPo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/88IDVBlNhAw</x:t>
   </x:si>
   <x:si>
     <x:t>https://youtu.be/Mtxw3B3PCdw</x:t>
   </x:si>
   <x:si>
-    <x:t>https://youtu.be/zHApkRhu_Bo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/msECp-vTfsQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/88IDVBlNhAw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/lghcF-oaTPo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/Ku4KyOsSrsU</x:t>
+    <x:t>https://youtu.be/_Vt7yiMfZ4A</x:t>
   </x:si>
   <x:si>
     <x:t>https://youtu.be/RmBgs2-s1Nw</x:t>
   </x:si>
   <x:si>
+    <x:t>https://youtu.be/zRPNVX9ITkA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/5-DGThgXIM4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/y95sSX7pV18</x:t>
+  </x:si>
+  <x:si>
     <x:t>https://youtu.be/z-EP2mN2F3M</x:t>
   </x:si>
   <x:si>
-    <x:t>https://youtu.be/5-DGThgXIM4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/y95sSX7pV18</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://youtu.be/jsWEb3x2wfM</x:t>
   </x:si>
   <x:si>
-    <x:t>https://youtu.be/aDxa_lu61sI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/W5rFvh8b7FY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/_Vt7yiMfZ4A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/zRPNVX9ITkA</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://youtu.be/AyTsWWY6dSo</x:t>
   </x:si>
   <x:si>
     <x:t>https://youtu.be/G6lp84t-R10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/gfsi_d_ImKI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/VkSYuagC1jc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/-DP6rU4-hEI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/L4Gt9zIyOsA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/gL5W66Cj58w</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/Y9SU1gp8kzM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/NhumXqcWFUI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/ekTmvPebxUg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/5kyki1iNx0Y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/gxlWWs6h2Ow</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/eNftSn7vUx4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/vNM6znKnV_w</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/5uZ78xEWB8w</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/TEAeN9LlpiA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/KNwFN0a8_YM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/f3RJl8jPVgU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/Y6mEvIQ5GLY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/zMHuGsJDRVI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/rqhAcwMM8JM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/ACRA2rNBfdc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/7mEn3_TJL8M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/kuzeX1nrboU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/PjDv_3QAT3Q</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/mAtzBf9r1O8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/VcmTnw-djNY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/dpOWXZcQf3I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/L36wMoAu0kU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/dNLofAPhoqQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/DreATbi0Ijw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/Uy2VItdU0Hk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/ZDA5cgA9-UM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/7C0vn12p3Z8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/8u37nKXtRj4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/QrB--kt6QoI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/VYIontYLUTg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/JM7OxgCfUmo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/o3eAl-wJyzg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/GG--GtONqkQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/Se1zM2eg7vE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/DAB5DJ8UucA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/QpO3rreSJl4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/etnin3JsRQc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/hTX_ZTBVL0U</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/A63o9yVYMNk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/VW1h_T7qh_A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/v2WUA2_CAPk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/fVBXFX2g4W8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/7egUUetW560</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/FuGAZhuczrs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/gjwK1TQtSP4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/8Gh0sZps2MU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/fkylmaRa3i8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/21xeTHEuspc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/cuejYOmf8HE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/VK7epdwfW0Y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/JO6OyXbVsFs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/Y2I3S4U2pzQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/uX3GltwMiaA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/aEy6g_s_XOE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/6nMNHF0dPHs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/wzs2DmYTcSo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/bqAiVeVwBjI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/QSUTGOnUFX8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/06mcjCDvZKA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/njcuwDnynt4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/eXZWt63OsBc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/Lpu8YQ_UIBg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/D-lVuuXb3EQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/igGS8DFlm1E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/mM5g8c12h_Q</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/3IE2EU861EI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/hrCoG7U2w1g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/9G7nndXb9Sg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/ErB6B7y2nsc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/u9IqPwbFonk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/7oxVJ-onNbc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/W-pI-wiGXIg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/K8jMgzlvFAU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/h0Z3BoL__pk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/IH48CrJMCiw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/177Vj1KXD2c</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/X8qyDt4jV8E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/3KR9shY0xGw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/83F2fVPVea4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/SV2JUOb1gVg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/p4oXciXKJBU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/2fsKN1zxAFI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/SsUCJydkcrs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/grosRM0vV8E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/Ti-gcYajNb4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/P9XUc6KMMoQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/_bf8fxlDsYY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/DBiIjdrrguI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/6-CVafQPUHM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/LuryyZROjJ4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/qDI6AUD5azA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/bk6h-ylOpbk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/B049BFnxiFo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/nu_uWb6u8aI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/UkxVf5_uKaA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/danjfvxOAHM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/LY2-Sqhm6zU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/GYDX4GQtwNU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/OB_LYLpSYD0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/yMg5VghyDks</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/BIEfNVleWUw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/MXtzfeYdA0Y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/YLEBLb52EOQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/WGgXNUAW8-c</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/fNgDEyzbRwE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/gQ5KfXFjaco</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/-b8SYM1uKmM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/d-kdQASpVjU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/cm0bG0nH6hc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/i_OQeibwOYk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/OVqygaiU7dA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/Exd9KtbqTug</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/rOV5fxBdAio</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/HhUASrT2D-g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/Olnzh_ltDIc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/tLMb1e-jXnk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/pxuAFtaerBc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/bH5B_GGGU70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/ppi2rqD3yZg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/uwiw3__f-qk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/ClOkaKBPBsg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/fCbsYu3djOM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/BCucV2JUEvM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/DV3Qnwhkutc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/kAzB8F0GOtM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/riuIOUJ1Yok</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/x3J98hG977A</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1950,7 +1953,7 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A3:I53"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="G1" activeCellId="0" sqref="G1:G1048576"/>
     </x:sheetView>
   </x:sheetViews>
@@ -1961,33 +1964,33 @@
     <x:col min="4" max="4" width="11.875" style="4" customWidth="1"/>
     <x:col min="5" max="5" width="14.125" style="2" customWidth="1"/>
     <x:col min="6" max="6" width="51.75" style="2" customWidth="1"/>
-    <x:col min="7" max="7" width="8.5" customWidth="1"/>
+    <x:col min="7" max="7" width="8.5" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="3" spans="2:7">
       <x:c r="B3" s="2" t="s">
-        <x:v>164</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C3" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D3" s="8" t="s">
-        <x:v>168</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E3" s="8" t="s">
-        <x:v>161</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="F3" s="8" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="G3" t="s">
-        <x:v>180</x:v>
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="G3" s="1" t="s">
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="5"/>
       <x:c r="B4" s="5" t="s">
-        <x:v>171</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C4" s="10">
         <x:v>97</x:v>
@@ -2000,10 +2003,10 @@
         <x:v>263.7238716</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="G4">
-        <x:v>1</x:v>
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="G4" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H4" s="5"/>
       <x:c r="I4" s="5"/>
@@ -2011,7 +2014,7 @@
     <x:row r="5" spans="1:8">
       <x:c r="A5" s="5"/>
       <x:c r="B5" s="5" t="s">
-        <x:v>154</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C5" s="6">
         <x:v>190</x:v>
@@ -2024,17 +2027,17 @@
         <x:v>516.57253200000002</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="G5">
-        <x:v>1</x:v>
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="G5" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H5" s="5"/>
     </x:row>
     <x:row r="6" spans="1:8">
       <x:c r="A6" s="5"/>
       <x:c r="B6" s="5" t="s">
-        <x:v>189</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C6" s="6">
         <x:v>67</x:v>
@@ -2047,17 +2050,17 @@
         <x:v>182.15978760000002</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="G6">
-        <x:v>1</x:v>
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="G6" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H6" s="5"/>
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="5"/>
       <x:c r="B7" s="5" t="s">
-        <x:v>178</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C7" s="6">
         <x:v>83</x:v>
@@ -2070,17 +2073,17 @@
         <x:v>225.66063240000003</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="G7">
-        <x:v>1</x:v>
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G7" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H7" s="5"/>
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="5"/>
       <x:c r="B8" s="5" t="s">
-        <x:v>186</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C8" s="6">
         <x:v>140</x:v>
@@ -2093,17 +2096,17 @@
         <x:v>380.63239200000004</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="G8">
-        <x:v>1</x:v>
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="G8" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H8" s="5"/>
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="5"/>
       <x:c r="B9" s="5" t="s">
-        <x:v>192</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C9" s="6">
         <x:v>120</x:v>
@@ -2116,17 +2119,17 @@
         <x:v>326.25633600000003</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="G9">
-        <x:v>1</x:v>
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="G9" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H9" s="5"/>
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="5"/>
       <x:c r="B10" s="5" t="s">
-        <x:v>154</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C10" s="6">
         <x:v>72</x:v>
@@ -2139,16 +2142,16 @@
         <x:v>195.7538016</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="G10">
-        <x:v>1</x:v>
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="G10" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="5"/>
       <x:c r="B11" s="5" t="s">
-        <x:v>154</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C11" s="4">
         <x:v>210</x:v>
@@ -2161,16 +2164,16 @@
         <x:v>570.94858800000009</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="G11">
-        <x:v>1</x:v>
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="G11" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="5"/>
       <x:c r="B12" s="5" t="s">
-        <x:v>154</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C12" s="4">
         <x:v>130</x:v>
@@ -2183,16 +2186,16 @@
         <x:v>353.44436400000001</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="G12">
-        <x:v>1</x:v>
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="G12" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="5"/>
       <x:c r="B13" s="5" t="s">
-        <x:v>154</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C13" s="4">
         <x:v>530</x:v>
@@ -2205,16 +2208,16 @@
         <x:v>1440.9654840000001</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="G13">
-        <x:v>1</x:v>
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="G13" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="5"/>
       <x:c r="B14" s="5" t="s">
-        <x:v>186</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C14" s="4">
         <x:v>97</x:v>
@@ -2227,16 +2230,16 @@
         <x:v>263.7238716</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="G14">
-        <x:v>1</x:v>
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="G14" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7">
       <x:c r="A15" s="5"/>
       <x:c r="B15" s="5" t="s">
-        <x:v>154</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C15" s="4">
         <x:v>120</x:v>
@@ -2249,16 +2252,16 @@
         <x:v>326.25633600000003</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="G15">
-        <x:v>1</x:v>
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="G15" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7">
       <x:c r="A16" s="5"/>
       <x:c r="B16" s="5" t="s">
-        <x:v>186</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C16" s="4">
         <x:v>110</x:v>
@@ -2271,16 +2274,16 @@
         <x:v>299.068308</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="G16">
-        <x:v>1</x:v>
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="G16" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7">
       <x:c r="A17" s="5"/>
       <x:c r="B17" s="5" t="s">
-        <x:v>186</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C17" s="4">
         <x:v>360</x:v>
@@ -2293,16 +2296,16 @@
         <x:v>978.7690080000001</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="G17">
-        <x:v>1</x:v>
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="G17" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7">
       <x:c r="A18" s="5"/>
       <x:c r="B18" s="5" t="s">
-        <x:v>186</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C18" s="4">
         <x:v>110</x:v>
@@ -2315,16 +2318,16 @@
         <x:v>299.068308</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="G18">
-        <x:v>1</x:v>
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="G18" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:7">
       <x:c r="A19" s="5"/>
       <x:c r="B19" s="5" t="s">
-        <x:v>186</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C19" s="4">
         <x:v>190</x:v>
@@ -2337,16 +2340,16 @@
         <x:v>516.57253200000002</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="G19">
-        <x:v>1</x:v>
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="G19" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:7">
       <x:c r="A20" s="5"/>
       <x:c r="B20" s="5" t="s">
-        <x:v>190</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C20" s="4">
         <x:v>250</x:v>
@@ -2359,16 +2362,16 @@
         <x:v>679.7007000000001</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="G20">
-        <x:v>1</x:v>
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="G20" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7">
       <x:c r="A21" s="5"/>
       <x:c r="B21" s="5" t="s">
-        <x:v>154</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C21" s="4">
         <x:v>150</x:v>
@@ -2381,16 +2384,16 @@
         <x:v>407.82042000000001</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G21">
-        <x:v>1</x:v>
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="G21" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:7">
       <x:c r="A22" s="5"/>
       <x:c r="B22" s="5" t="s">
-        <x:v>178</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C22" s="4">
         <x:v>100</x:v>
@@ -2403,16 +2406,16 @@
         <x:v>271.88028000000003</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="G22">
-        <x:v>1</x:v>
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="G22" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:7">
       <x:c r="A23" s="5"/>
       <x:c r="B23" s="5" t="s">
-        <x:v>194</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C23" s="4">
         <x:v>360</x:v>
@@ -2425,16 +2428,16 @@
         <x:v>978.7690080000001</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="G23">
-        <x:v>1</x:v>
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="G23" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:7">
       <x:c r="A24" s="5"/>
       <x:c r="B24" s="5" t="s">
-        <x:v>186</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C24" s="4">
         <x:v>230</x:v>
@@ -2447,16 +2450,16 @@
         <x:v>625.32464400000003</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="G24">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G24" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:7">
       <x:c r="A25" s="5"/>
       <x:c r="B25" s="5" t="s">
-        <x:v>195</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C25" s="4">
         <x:v>210</x:v>
@@ -2469,16 +2472,16 @@
         <x:v>570.94858800000009</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="G25">
-        <x:v>1</x:v>
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="G25" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:7">
       <x:c r="A26" s="5"/>
       <x:c r="B26" s="5" t="s">
-        <x:v>186</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C26" s="4">
         <x:v>430</x:v>
@@ -2491,16 +2494,16 @@
         <x:v>1169.085204</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="G26">
-        <x:v>1</x:v>
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="G26" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7">
       <x:c r="A27" s="5"/>
       <x:c r="B27" s="5" t="s">
-        <x:v>198</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C27" s="4">
         <x:v>52</x:v>
@@ -2513,16 +2516,16 @@
         <x:v>141.3777456</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G27">
-        <x:v>1</x:v>
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="G27" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:7">
       <x:c r="A28" s="5"/>
       <x:c r="B28" s="5" t="s">
-        <x:v>195</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C28" s="4">
         <x:v>140</x:v>
@@ -2535,16 +2538,16 @@
         <x:v>380.63239200000004</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="G28">
-        <x:v>1</x:v>
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="G28" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:7">
       <x:c r="A29" s="5"/>
       <x:c r="B29" s="5" t="s">
-        <x:v>160</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C29" s="4">
         <x:v>140</x:v>
@@ -2557,16 +2560,16 @@
         <x:v>380.63239200000004</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="G29">
-        <x:v>1</x:v>
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="G29" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:7">
       <x:c r="A30" s="5"/>
       <x:c r="B30" s="5" t="s">
-        <x:v>160</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C30" s="4">
         <x:v>130</x:v>
@@ -2579,16 +2582,16 @@
         <x:v>353.44436400000001</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="G30">
-        <x:v>1</x:v>
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="G30" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:7">
       <x:c r="A31" s="5"/>
       <x:c r="B31" s="4" t="s">
-        <x:v>178</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C31" s="4">
         <x:v>380</x:v>
@@ -2601,16 +2604,16 @@
         <x:v>1033.145064</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="G31">
-        <x:v>1</x:v>
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="G31" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:7">
       <x:c r="A32" s="5"/>
       <x:c r="B32" s="5" t="s">
-        <x:v>172</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C32" s="4">
         <x:v>170</x:v>
@@ -2623,16 +2626,16 @@
         <x:v>462.19647600000002</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G32">
-        <x:v>1</x:v>
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="G32" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:7">
       <x:c r="A33" s="5"/>
       <x:c r="B33" s="5" t="s">
-        <x:v>194</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C33" s="4">
         <x:v>250</x:v>
@@ -2645,16 +2648,16 @@
         <x:v>679.7007000000001</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G33">
-        <x:v>1</x:v>
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="G33" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:7">
       <x:c r="A34" s="5"/>
       <x:c r="B34" s="5" t="s">
-        <x:v>170</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C34" s="4">
         <x:v>110</x:v>
@@ -2667,16 +2670,16 @@
         <x:v>299.068308</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="G34">
-        <x:v>1</x:v>
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="G34" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:7">
       <x:c r="A35" s="5"/>
       <x:c r="B35" s="5" t="s">
-        <x:v>172</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C35" s="4">
         <x:v>150</x:v>
@@ -2689,16 +2692,16 @@
         <x:v>407.82042000000001</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G35">
-        <x:v>1</x:v>
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="G35" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:7">
       <x:c r="A36" s="5"/>
       <x:c r="B36" s="5" t="s">
-        <x:v>172</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C36" s="4">
         <x:v>140</x:v>
@@ -2711,16 +2714,16 @@
         <x:v>380.63239200000004</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G36">
-        <x:v>1</x:v>
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="G36" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:7">
       <x:c r="A37" s="5"/>
       <x:c r="B37" s="5" t="s">
-        <x:v>186</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C37" s="4">
         <x:v>110</x:v>
@@ -2733,16 +2736,16 @@
         <x:v>299.068308</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="G37">
-        <x:v>1</x:v>
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="G37" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:7">
       <x:c r="A38" s="5"/>
       <x:c r="B38" s="5" t="s">
-        <x:v>154</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C38" s="4">
         <x:v>140</x:v>
@@ -2755,16 +2758,16 @@
         <x:v>380.63239200000004</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="G38">
-        <x:v>1</x:v>
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G38" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:7">
       <x:c r="A39" s="5"/>
       <x:c r="B39" s="5" t="s">
-        <x:v>178</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C39" s="4">
         <x:v>110</x:v>
@@ -2777,16 +2780,16 @@
         <x:v>299.068308</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="G39">
-        <x:v>1</x:v>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G39" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:7">
       <x:c r="A40" s="5"/>
       <x:c r="B40" s="5" t="s">
-        <x:v>193</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C40" s="4">
         <x:v>49</x:v>
@@ -2799,16 +2802,16 @@
         <x:v>133.22133720000002</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="G40">
-        <x:v>1</x:v>
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="G40" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:7">
       <x:c r="A41" s="5"/>
       <x:c r="B41" s="5" t="s">
-        <x:v>170</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C41" s="4">
         <x:v>140</x:v>
@@ -2821,16 +2824,16 @@
         <x:v>380.63239200000004</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="G41">
-        <x:v>1</x:v>
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="G41" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:7">
       <x:c r="A42" s="5"/>
       <x:c r="B42" s="5" t="s">
-        <x:v>178</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C42" s="4">
         <x:v>93</x:v>
@@ -2843,16 +2846,16 @@
         <x:v>252.84866040000003</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="G42">
-        <x:v>1</x:v>
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="G42" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:7">
       <x:c r="A43" s="5"/>
       <x:c r="B43" s="5" t="s">
-        <x:v>198</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C43" s="4">
         <x:v>150</x:v>
@@ -2865,16 +2868,16 @@
         <x:v>407.82042000000001</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G43">
-        <x:v>1</x:v>
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="G43" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:7">
       <x:c r="A44" s="5"/>
       <x:c r="B44" s="5" t="s">
-        <x:v>181</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C44" s="4">
         <x:v>100</x:v>
@@ -2887,16 +2890,16 @@
         <x:v>271.88028000000003</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="G44">
-        <x:v>1</x:v>
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="G44" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:7">
       <x:c r="A45" s="5"/>
       <x:c r="B45" s="5" t="s">
-        <x:v>172</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C45" s="4">
         <x:v>100</x:v>
@@ -2909,16 +2912,16 @@
         <x:v>271.88028000000003</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G45">
-        <x:v>1</x:v>
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="G45" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:7">
       <x:c r="A46" s="5"/>
       <x:c r="B46" s="5" t="s">
-        <x:v>194</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C46" s="4">
         <x:v>140</x:v>
@@ -2931,16 +2934,16 @@
         <x:v>380.63239200000004</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="G46">
-        <x:v>1</x:v>
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="G46" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:7">
       <x:c r="A47" s="5"/>
       <x:c r="B47" s="5" t="s">
-        <x:v>194</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C47" s="4">
         <x:v>220</x:v>
@@ -2953,16 +2956,16 @@
         <x:v>598.136616</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="G47">
-        <x:v>1</x:v>
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G47" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:7">
       <x:c r="A48" s="5"/>
       <x:c r="B48" s="5" t="s">
-        <x:v>154</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C48" s="4">
         <x:v>200</x:v>
@@ -2975,16 +2978,16 @@
         <x:v>543.76056000000005</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="G48">
-        <x:v>1</x:v>
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G48" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:7">
       <x:c r="A49" s="5"/>
       <x:c r="B49" s="5" t="s">
-        <x:v>190</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C49" s="4">
         <x:v>120</x:v>
@@ -2997,16 +3000,16 @@
         <x:v>326.25633600000003</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="G49">
-        <x:v>1</x:v>
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="G49" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:7">
       <x:c r="A50" s="5"/>
       <x:c r="B50" s="5" t="s">
-        <x:v>154</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C50" s="4">
         <x:v>91</x:v>
@@ -3019,16 +3022,16 @@
         <x:v>247.41105480000002</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="G50">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G50" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:7">
       <x:c r="A51" s="5"/>
       <x:c r="B51" s="5" t="s">
-        <x:v>152</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="C51" s="4">
         <x:v>340</x:v>
@@ -3041,16 +3044,16 @@
         <x:v>924.39295200000004</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="G51">
-        <x:v>1</x:v>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G51" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:7">
       <x:c r="A52" s="5"/>
       <x:c r="B52" s="5" t="s">
-        <x:v>178</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C52" s="4">
         <x:v>170</x:v>
@@ -3063,16 +3066,16 @@
         <x:v>462.19647600000002</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="G52">
-        <x:v>1</x:v>
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="G52" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:7">
       <x:c r="A53" s="5"/>
       <x:c r="B53" s="5" t="s">
-        <x:v>194</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C53" s="4">
         <x:v>76</x:v>
@@ -3085,10 +3088,10 @@
         <x:v>206.62901280000003</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="G53">
-        <x:v>1</x:v>
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G53" s="1" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3119,28 +3122,28 @@
   <x:sheetData>
     <x:row r="3" spans="2:7">
       <x:c r="B3" s="5" t="s">
-        <x:v>164</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C3" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D3" s="8" t="s">
-        <x:v>168</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E3" s="8" t="s">
-        <x:v>161</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="F3" s="8" t="s">
-        <x:v>151</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="G3" t="s">
-        <x:v>180</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="5"/>
       <x:c r="B4" s="5" t="s">
-        <x:v>178</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C4" s="7">
         <x:f>34.93</x:f>
@@ -3154,10 +3157,10 @@
         <x:v>94.967786729129998</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="G4">
-        <x:v>1</x:v>
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G4" t="s">
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H4" s="5"/>
       <x:c r="I4" s="5"/>
@@ -3165,7 +3168,7 @@
     <x:row r="5" spans="1:8">
       <x:c r="A5" s="5"/>
       <x:c r="B5" s="5" t="s">
-        <x:v>178</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C5" s="7">
         <x:v>41.060000000000002</x:v>
@@ -3178,17 +3181,17 @@
         <x:v>111.63404875746001</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="G5">
-        <x:v>1</x:v>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G5" t="s">
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H5" s="5"/>
     </x:row>
     <x:row r="6" spans="1:8">
       <x:c r="A6" s="5"/>
       <x:c r="B6" s="5" t="s">
-        <x:v>186</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C6" s="7">
         <x:v>92.920000000000002</x:v>
@@ -3201,17 +3204,17 @@
         <x:v>252.63116927772001</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="G6">
-        <x:v>1</x:v>
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G6" t="s">
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H6" s="5"/>
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="5"/>
       <x:c r="B7" s="5" t="s">
-        <x:v>186</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C7" s="7">
         <x:v>80.579999999999998</x:v>
@@ -3224,17 +3227,17 @@
         <x:v>219.08114098578</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="G7">
-        <x:v>1</x:v>
+        <x:v>315</x:v>
+      </x:c>
+      <x:c r="G7" t="s">
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H7" s="5"/>
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="5"/>
       <x:c r="B8" s="5" t="s">
-        <x:v>153</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="C8" s="7">
         <x:v>119.09999999999999</x:v>
@@ -3247,17 +3250,17 @@
         <x:v>323.80943027309996</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="G8">
-        <x:v>1</x:v>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="G8" t="s">
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H8" s="5"/>
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="5"/>
       <x:c r="B9" s="5" t="s">
-        <x:v>178</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C9" s="7">
         <x:v>97.700000000000003</x:v>
@@ -3270,17 +3273,17 @@
         <x:v>265.62704733570001</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="G9">
-        <x:v>1</x:v>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G9" t="s">
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H9" s="5"/>
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="5"/>
       <x:c r="B10" s="5" t="s">
-        <x:v>186</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C10" s="7">
         <x:v>175.78</x:v>
@@ -3293,16 +3296,16 @@
         <x:v>477.91118096897998</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="G10">
-        <x:v>1</x:v>
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G10" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="5"/>
       <x:c r="B11" s="5" t="s">
-        <x:v>183</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C11" s="4">
         <x:v>69.019999999999996</x:v>
@@ -3315,16 +3318,16 @@
         <x:v>187.65177898781997</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="G11">
-        <x:v>1</x:v>
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="G11" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="5"/>
       <x:c r="B12" s="5" t="s">
-        <x:v>171</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C12" s="4">
         <x:v>132.84999999999999</x:v>
@@ -3337,16 +3340,16 @@
         <x:v>361.19297071184997</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="G12">
-        <x:v>1</x:v>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G12" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="5"/>
       <x:c r="B13" s="5" t="s">
-        <x:v>186</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C13" s="4">
         <x:v>96.140000000000001</x:v>
@@ -3359,16 +3362,16 @@
         <x:v>261.38571474774</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="G13">
-        <x:v>1</x:v>
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="G13" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="5"/>
       <x:c r="B14" s="5" t="s">
-        <x:v>194</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C14" s="4">
         <x:v>103.98999999999999</x:v>
@@ -3381,16 +3384,16 @@
         <x:v>282.72831783458997</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="G14">
-        <x:v>1</x:v>
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G14" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7">
       <x:c r="A15" s="5"/>
       <x:c r="B15" s="5" t="s">
-        <x:v>186</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C15" s="4">
         <x:v>286.02999999999997</x:v>
@@ -3403,16 +3406,16 @@
         <x:v>777.65920521422993</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="G15">
-        <x:v>1</x:v>
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="G15" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7">
       <x:c r="A16" s="5"/>
       <x:c r="B16" s="5" t="s">
-        <x:v>178</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C16" s="4">
         <x:v>87.640000000000001</x:v>
@@ -3425,16 +3428,16 @@
         <x:v>238.27588974923998</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="G16">
-        <x:v>1</x:v>
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="G16" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7">
       <x:c r="A17" s="5"/>
       <x:c r="B17" s="5" t="s">
-        <x:v>183</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C17" s="4">
         <x:v>202.11000000000001</x:v>
@@ -3447,16 +3450,16 @@
         <x:v>549.49726240551001</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="G17">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G17" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7">
       <x:c r="A18" s="5"/>
       <x:c r="B18" s="5" t="s">
-        <x:v>154</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C18" s="4">
         <x:v>74.079999999999998</x:v>
@@ -3469,16 +3472,16 @@
         <x:v>201.40892186927999</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="G18">
-        <x:v>1</x:v>
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="G18" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:7">
       <x:c r="A19" s="5"/>
       <x:c r="B19" s="5" t="s">
-        <x:v>194</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C19" s="4">
         <x:v>68.719999999999999</x:v>
@@ -3491,16 +3494,16 @@
         <x:v>186.83613810551998</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="G19">
-        <x:v>1</x:v>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G19" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:7">
       <x:c r="A20" s="5"/>
       <x:c r="B20" s="5" t="s">
-        <x:v>194</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C20" s="4">
         <x:v>60.689999999999998</x:v>
@@ -3513,16 +3516,16 @@
         <x:v>165.00415048929</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="G20">
-        <x:v>1</x:v>
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G20" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7">
       <x:c r="A21" s="5"/>
       <x:c r="B21" s="5" t="s">
-        <x:v>186</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C21" s="4">
         <x:v>58.700000000000003</x:v>
@@ -3535,16 +3538,16 @@
         <x:v>159.5937326367</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G21">
-        <x:v>1</x:v>
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="G21" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:7">
       <x:c r="A22" s="5"/>
       <x:c r="B22" s="5" t="s">
-        <x:v>183</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C22" s="4">
         <x:v>101.7</x:v>
@@ -3557,16 +3560,16 @@
         <x:v>276.50225909969998</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="G22">
-        <x:v>1</x:v>
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G22" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:7">
       <x:c r="A23" s="5"/>
       <x:c r="B23" s="5" t="s">
-        <x:v>183</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C23" s="4">
         <x:v>86.629999999999995</x:v>
@@ -3579,16 +3582,16 @@
         <x:v>235.52989877882999</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G23">
-        <x:v>1</x:v>
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="G23" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:7">
       <x:c r="A24" s="5"/>
       <x:c r="B24" s="5" t="s">
-        <x:v>154</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C24" s="4">
         <x:v>121.45</x:v>
@@ -3601,16 +3604,16 @@
         <x:v>330.19861718444997</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="G24">
-        <x:v>1</x:v>
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="G24" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:7">
       <x:c r="A25" s="5"/>
       <x:c r="B25" s="5" t="s">
-        <x:v>154</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C25" s="4">
         <x:v>18.579999999999998</x:v>
@@ -3623,16 +3626,16 @@
         <x:v>50.51535864377999</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G25">
-        <x:v>1</x:v>
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G25" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:7">
       <x:c r="A26" s="5"/>
       <x:c r="B26" s="5" t="s">
-        <x:v>196</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C26" s="4">
         <x:v>49.32</x:v>
@@ -3645,16 +3648,16 @@
         <x:v>134.09136105011999</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="G26">
-        <x:v>1</x:v>
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="G26" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7">
       <x:c r="A27" s="5"/>
       <x:c r="B27" s="5" t="s">
-        <x:v>194</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C27" s="4">
         <x:v>50.07</x:v>
@@ -3667,16 +3670,16 @@
         <x:v>136.13046325586998</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="G27">
         <x:v>1</x:v>
+      </x:c>
+      <x:c r="G27" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:7">
       <x:c r="A28" s="5"/>
       <x:c r="B28" s="5" t="s">
-        <x:v>153</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="C28" s="4">
         <x:v>106.83</x:v>
@@ -3689,16 +3692,16 @@
         <x:v>290.44971818702999</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="G28">
-        <x:v>1</x:v>
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="G28" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:7">
       <x:c r="A29" s="5"/>
       <x:c r="B29" s="5" t="s">
-        <x:v>183</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C29" s="4">
         <x:v>109.36</x:v>
@@ -3711,16 +3714,16 @@
         <x:v>297.32828962776</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="G29">
-        <x:v>1</x:v>
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="G29" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:7">
       <x:c r="A30" s="5"/>
       <x:c r="B30" s="5" t="s">
-        <x:v>171</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C30" s="4">
         <x:v>40.920000000000002</x:v>
@@ -3733,16 +3736,16 @@
         <x:v>111.25341634572</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="G30">
-        <x:v>1</x:v>
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G30" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:7">
       <x:c r="A31" s="5"/>
       <x:c r="B31" s="4" t="s">
-        <x:v>154</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C31" s="4">
         <x:v>41.719999999999999</x:v>
@@ -3755,16 +3758,16 @@
         <x:v>113.42845869851999</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="G31">
-        <x:v>1</x:v>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G31" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:7">
       <x:c r="A32" s="5"/>
       <x:c r="B32" s="5" t="s">
-        <x:v>154</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C32" s="4">
         <x:v>129.86000000000001</x:v>
@@ -3777,16 +3780,16 @@
         <x:v>353.06374991826004</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="G32">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="G32" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:7">
       <x:c r="A33" s="5"/>
       <x:c r="B33" s="5" t="s">
-        <x:v>154</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C33" s="4">
         <x:v>45.539999999999999</x:v>
@@ -3799,16 +3802,16 @@
         <x:v>123.81428593313998</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="G33">
-        <x:v>1</x:v>
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="G33" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:7">
       <x:c r="A34" s="5"/>
       <x:c r="B34" s="5" t="s">
-        <x:v>159</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="C34" s="4">
         <x:v>101.16</x:v>
@@ -3821,16 +3824,16 @@
         <x:v>275.03410551155997</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="G34">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G34" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:7">
       <x:c r="A35" s="5"/>
       <x:c r="B35" s="5" t="s">
-        <x:v>200</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C35" s="4">
         <x:v>42.969999999999999</x:v>
@@ -3843,16 +3846,16 @@
         <x:v>116.82696237476999</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="G35">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G35" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:7">
       <x:c r="A36" s="5"/>
       <x:c r="B36" s="5" t="s">
-        <x:v>194</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C36" s="4">
         <x:v>120.47</x:v>
@@ -3865,16 +3868,16 @@
         <x:v>327.53419030226996</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="G36">
-        <x:v>1</x:v>
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="G36" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:7">
       <x:c r="A37" s="5"/>
       <x:c r="B37" s="5" t="s">
-        <x:v>181</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C37" s="4">
         <x:v>86.849999999999994</x:v>
@@ -3887,16 +3890,16 @@
         <x:v>236.12803542584996</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G37">
-        <x:v>1</x:v>
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="G37" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:7">
       <x:c r="A38" s="5"/>
       <x:c r="B38" s="5" t="s">
-        <x:v>190</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C38" s="4">
         <x:v>79.469999999999999</x:v>
@@ -3909,16 +3912,16 @@
         <x:v>216.06326972126999</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G38">
-        <x:v>1</x:v>
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="G38" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:7">
       <x:c r="A39" s="5"/>
       <x:c r="B39" s="5" t="s">
-        <x:v>194</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C39" s="4">
         <x:v>82.760000000000005</x:v>
@@ -3931,16 +3934,16 @@
         <x:v>225.00813139716001</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="G39">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G39" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:7">
       <x:c r="A40" s="5"/>
       <x:c r="B40" s="5" t="s">
-        <x:v>194</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C40" s="4">
         <x:v>75.090000000000003</x:v>
@@ -3953,16 +3956,16 @@
         <x:v>204.15491283969001</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="G40">
-        <x:v>1</x:v>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="G40" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:7">
       <x:c r="A41" s="5"/>
       <x:c r="B41" s="5" t="s">
-        <x:v>183</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C41" s="4">
         <x:v>109.56999999999999</x:v>
@@ -3975,16 +3978,16 @@
         <x:v>297.89923824536999</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="G41">
-        <x:v>1</x:v>
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G41" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:7">
       <x:c r="A42" s="5"/>
       <x:c r="B42" s="5" t="s">
-        <x:v>198</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C42" s="4">
         <x:v>75.689999999999998</x:v>
@@ -3997,16 +4000,16 @@
         <x:v>205.78619460428999</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="G42">
-        <x:v>1</x:v>
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G42" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:7">
       <x:c r="A43" s="5"/>
       <x:c r="B43" s="5" t="s">
-        <x:v>181</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C43" s="4">
         <x:v>95.150000000000006</x:v>
@@ -4019,16 +4022,16 @@
         <x:v>258.69409983615003</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="G43">
-        <x:v>1</x:v>
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G43" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:7">
       <x:c r="A44" s="5"/>
       <x:c r="B44" s="5" t="s">
-        <x:v>190</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C44" s="4">
         <x:v>52.909999999999997</x:v>
@@ -4041,16 +4044,16 @@
         <x:v>143.85186360830997</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="G44">
-        <x:v>1</x:v>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G44" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:7">
       <x:c r="A45" s="5"/>
       <x:c r="B45" s="5" t="s">
-        <x:v>181</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C45" s="4">
         <x:v>126.98</x:v>
@@ -4063,16 +4066,16 @@
         <x:v>345.23359744817998</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="G45">
-        <x:v>1</x:v>
+        <x:v>301</x:v>
+      </x:c>
+      <x:c r="G45" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:7">
       <x:c r="A46" s="5"/>
       <x:c r="B46" s="5" t="s">
-        <x:v>171</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C46" s="4">
         <x:v>82.480000000000004</x:v>
@@ -4085,16 +4088,16 @@
         <x:v>224.24686657367999</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="G46">
-        <x:v>1</x:v>
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G46" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:7">
       <x:c r="A47" s="5"/>
       <x:c r="B47" s="5" t="s">
-        <x:v>181</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C47" s="4">
         <x:v>160.19999999999999</x:v>
@@ -4107,16 +4110,16 @@
         <x:v>435.55223114819995</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="G47">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G47" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:7">
       <x:c r="A48" s="5"/>
       <x:c r="B48" s="5" t="s">
-        <x:v>181</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C48" s="4">
         <x:v>138.81999999999999</x:v>
@@ -4129,16 +4132,16 @@
         <x:v>377.42422426961997</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G48">
-        <x:v>1</x:v>
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="G48" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:7">
       <x:c r="A49" s="5"/>
       <x:c r="B49" s="5" t="s">
-        <x:v>190</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C49" s="4">
         <x:v>50.390000000000001</x:v>
@@ -4151,16 +4154,16 @@
         <x:v>137.00048019699</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="G49">
-        <x:v>1</x:v>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G49" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:7">
       <x:c r="A50" s="5"/>
       <x:c r="B50" s="5" t="s">
-        <x:v>160</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C50" s="4">
         <x:v>38.729999999999997</x:v>
@@ -4173,16 +4176,16 @@
         <x:v>105.29923790492998</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="G50">
-        <x:v>1</x:v>
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="G50" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:7">
       <x:c r="A51" s="5"/>
       <x:c r="B51" s="5" t="s">
-        <x:v>154</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C51" s="4">
         <x:v>113.79000000000001</x:v>
@@ -4195,16 +4198,16 @@
         <x:v>309.37258665639001</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="G51">
-        <x:v>1</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G51" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:7">
       <x:c r="A52" s="5"/>
       <x:c r="B52" s="5" t="s">
-        <x:v>194</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C52" s="4">
         <x:v>64.579999999999998</x:v>
@@ -4217,16 +4220,16 @@
         <x:v>175.58029392978</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="G52">
-        <x:v>1</x:v>
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="G52" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:7">
       <x:c r="A53" s="5"/>
       <x:c r="B53" s="5" t="s">
-        <x:v>194</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C53" s="4">
         <x:v>49.710000000000001</x:v>
@@ -4239,10 +4242,10 @@
         <x:v>135.15169419711</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="G53">
-        <x:v>1</x:v>
+        <x:v>307</x:v>
+      </x:c>
+      <x:c r="G53" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4272,28 +4275,28 @@
   <x:sheetData>
     <x:row r="3" spans="2:7">
       <x:c r="B3" s="2" t="s">
-        <x:v>164</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C3" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D3" s="8" t="s">
-        <x:v>168</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E3" s="8" t="s">
-        <x:v>161</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="F3" s="8" t="s">
-        <x:v>151</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="G3" t="s">
-        <x:v>180</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="5"/>
       <x:c r="B4" s="5" t="s">
-        <x:v>152</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="C4" s="12">
         <x:v>20.449999999999999</x:v>
@@ -4306,10 +4309,10 @@
         <x:v>55.6031850902</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="G4">
-        <x:v>1</x:v>
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="G4" t="s">
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H4" s="5"/>
       <x:c r="I4" s="5"/>
@@ -4317,7 +4320,7 @@
     <x:row r="5" spans="1:8">
       <x:c r="A5" s="5"/>
       <x:c r="B5" s="8" t="s">
-        <x:v>176</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C5" s="12">
         <x:v>36.5</x:v>
@@ -4330,17 +4333,17 @@
         <x:v>99.242848694000003</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="G5">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G5" t="s">
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H5" s="5"/>
     </x:row>
     <x:row r="6" spans="1:8">
       <x:c r="A6" s="5"/>
       <x:c r="B6" s="8" t="s">
-        <x:v>175</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C6" s="12">
         <x:v>21.34</x:v>
@@ -4353,17 +4356,17 @@
         <x:v>58.023079209039999</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G6">
-        <x:v>1</x:v>
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="G6" t="s">
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H6" s="5"/>
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="5"/>
       <x:c r="B7" s="8" t="s">
-        <x:v>176</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C7" s="12">
         <x:v>35.030000000000001</x:v>
@@ -4376,17 +4379,17 @@
         <x:v>95.245944924680003</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="G7">
-        <x:v>1</x:v>
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="G7" t="s">
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H7" s="5"/>
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="5"/>
       <x:c r="B8" s="8" t="s">
-        <x:v>197</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C8" s="12">
         <x:v>34.159999999999997</x:v>
@@ -4399,17 +4402,17 @@
         <x:v>92.880430448959999</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="G8">
-        <x:v>1</x:v>
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="G8" t="s">
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H8" s="5"/>
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="5"/>
       <x:c r="B9" s="5" t="s">
-        <x:v>174</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C9" s="12">
         <x:v>18.5</x:v>
@@ -4422,17 +4425,17 @@
         <x:v>50.301169886000004</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="G9">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G9" t="s">
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H9" s="5"/>
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="5"/>
       <x:c r="B10" s="5" t="s">
-        <x:v>152</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="C10" s="12">
         <x:v>41.729999999999997</x:v>
@@ -4445,16 +4448,16 @@
         <x:v>113.46312536987999</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="G10">
-        <x:v>1</x:v>
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="G10" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="5"/>
       <x:c r="B11" s="8" t="s">
-        <x:v>176</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C11" s="4">
         <x:v>50.5</x:v>
@@ -4467,16 +4470,16 @@
         <x:v>137.308598878</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="G11">
-        <x:v>1</x:v>
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="G11" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="5"/>
       <x:c r="B12" s="5" t="s">
-        <x:v>152</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="C12" s="4">
         <x:v>54.329999999999998</x:v>
@@ -4489,16 +4492,16 @@
         <x:v>147.72230053548</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="G12">
-        <x:v>1</x:v>
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="G12" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="5"/>
       <x:c r="B13" s="8" t="s">
-        <x:v>197</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C13" s="4">
         <x:v>37.700000000000003</x:v>
@@ -4511,16 +4514,16 @@
         <x:v>102.50562728120001</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G13">
-        <x:v>1</x:v>
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="G13" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="5"/>
       <x:c r="B14" s="8" t="s">
-        <x:v>176</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C14" s="4">
         <x:v>66.739999999999995</x:v>
@@ -4533,16 +4536,16 @@
         <x:v>181.46486909143999</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G14">
-        <x:v>1</x:v>
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="G14" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7">
       <x:c r="A15" s="5"/>
       <x:c r="B15" s="8" t="s">
-        <x:v>197</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C15" s="4">
         <x:v>44.539999999999999</x:v>
@@ -4555,16 +4558,16 @@
         <x:v>121.10346522824</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="G15">
-        <x:v>1</x:v>
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="G15" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7">
       <x:c r="A16" s="5"/>
       <x:c r="B16" s="5" t="s">
-        <x:v>152</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="C16" s="4">
         <x:v>58.789999999999999</x:v>
@@ -4577,16 +4580,16 @@
         <x:v>159.84896095124</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="G16">
-        <x:v>1</x:v>
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="G16" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7">
       <x:c r="A17" s="5"/>
       <x:c r="B17" s="8" t="s">
-        <x:v>176</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C17" s="4">
         <x:v>49.700000000000003</x:v>
@@ -4599,16 +4602,16 @@
         <x:v>135.1334131532</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="G17">
-        <x:v>1</x:v>
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="G17" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7">
       <x:c r="A18" s="5"/>
       <x:c r="B18" s="8" t="s">
-        <x:v>175</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C18" s="4">
         <x:v>41.939999999999998</x:v>
@@ -4621,16 +4624,16 @@
         <x:v>114.03411162264</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G18">
-        <x:v>1</x:v>
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="G18" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:7">
       <x:c r="A19" s="5"/>
       <x:c r="B19" s="8" t="s">
-        <x:v>176</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C19" s="4">
         <x:v>40.619999999999997</x:v>
@@ -4643,16 +4646,16 @@
         <x:v>110.44505517671999</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G19">
-        <x:v>1</x:v>
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="G19" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:7">
       <x:c r="A20" s="5"/>
       <x:c r="B20" s="5" t="s">
-        <x:v>152</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="C20" s="4">
         <x:v>58.770000000000003</x:v>
@@ -4665,16 +4668,16 @@
         <x:v>159.79458130812</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="G20">
-        <x:v>1</x:v>
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="G20" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7">
       <x:c r="A21" s="5"/>
       <x:c r="B21" s="8" t="s">
-        <x:v>176</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C21" s="4">
         <x:v>57.229999999999997</x:v>
@@ -4687,16 +4690,16 @@
         <x:v>155.60734878788</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="G21">
-        <x:v>1</x:v>
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="G21" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:7">
       <x:c r="A22" s="5"/>
       <x:c r="B22" s="5" t="s">
-        <x:v>152</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="C22" s="4">
         <x:v>68.090000000000003</x:v>
@@ -4709,16 +4712,16 @@
         <x:v>185.13549500204002</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="G22">
-        <x:v>1</x:v>
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="G22" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:7">
       <x:c r="A23" s="5"/>
       <x:c r="B23" s="5" t="s">
-        <x:v>181</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C23" s="4">
         <x:v>31.5</x:v>
@@ -4731,16 +4734,16 @@
         <x:v>85.647937913999996</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="G23">
-        <x:v>1</x:v>
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G23" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:7">
       <x:c r="A24" s="5"/>
       <x:c r="B24" s="8" t="s">
-        <x:v>176</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C24" s="4">
         <x:v>45.740000000000002</x:v>
@@ -4753,16 +4756,16 @@
         <x:v>124.36624381544</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="G24">
-        <x:v>1</x:v>
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G24" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:7">
       <x:c r="A25" s="5"/>
       <x:c r="B25" s="8" t="s">
-        <x:v>176</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C25" s="4">
         <x:v>42.009999999999998</x:v>
@@ -4775,16 +4778,16 @@
         <x:v>114.22444037356</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G25">
-        <x:v>1</x:v>
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G25" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:7">
       <x:c r="A26" s="5"/>
       <x:c r="B26" s="8" t="s">
-        <x:v>175</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C26" s="4">
         <x:v>46.009999999999998</x:v>
@@ -4797,16 +4800,16 @@
         <x:v>125.10036899756</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G26">
-        <x:v>1</x:v>
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="G26" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7">
       <x:c r="A27" s="5"/>
       <x:c r="B27" s="8" t="s">
-        <x:v>176</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C27" s="4">
         <x:v>69.489999999999995</x:v>
@@ -4819,16 +4822,16 @@
         <x:v>188.94207002043999</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="G27">
-        <x:v>1</x:v>
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="G27" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:7">
       <x:c r="A28" s="5"/>
       <x:c r="B28" s="5" t="s">
-        <x:v>152</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="C28" s="4">
         <x:v>69.379999999999995</x:v>
@@ -4841,16 +4844,16 @@
         <x:v>188.64298198327998</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="G28">
-        <x:v>1</x:v>
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="G28" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:7">
       <x:c r="A29" s="5"/>
       <x:c r="B29" s="8" t="s">
-        <x:v>176</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C29" s="4">
         <x:v>72.359999999999999</x:v>
@@ -4863,16 +4866,16 @@
         <x:v>196.74554880816001</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="G29">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G29" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:7">
       <x:c r="A30" s="5"/>
       <x:c r="B30" s="8" t="s">
-        <x:v>176</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C30" s="4">
         <x:v>54.030000000000001</x:v>
@@ -4885,16 +4888,16 @@
         <x:v>146.90660588868002</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="G30">
-        <x:v>1</x:v>
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="G30" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:7">
       <x:c r="A31" s="5"/>
       <x:c r="B31" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="C31" s="4">
         <x:v>97.620000000000005</x:v>
@@ -4907,16 +4910,16 @@
         <x:v>265.42703806872004</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="G31">
-        <x:v>1</x:v>
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="G31" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:7">
       <x:c r="A32" s="5"/>
       <x:c r="B32" s="8" t="s">
-        <x:v>176</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C32" s="4">
         <x:v>62.119999999999997</x:v>
@@ -4929,16 +4932,16 @@
         <x:v>168.90317153071999</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="G32">
-        <x:v>1</x:v>
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="G32" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:7">
       <x:c r="A33" s="5"/>
       <x:c r="B33" s="8" t="s">
-        <x:v>176</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C33" s="4">
         <x:v>38.039999999999999</x:v>
@@ -4951,16 +4954,16 @@
         <x:v>103.43008121424</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="G33">
-        <x:v>1</x:v>
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="G33" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:7">
       <x:c r="A34" s="5"/>
       <x:c r="B34" s="8" t="s">
-        <x:v>176</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C34" s="4">
         <x:v>66.400000000000006</x:v>
@@ -4973,16 +4976,16 @@
         <x:v>180.54041515840001</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="G34">
-        <x:v>1</x:v>
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="G34" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:7">
       <x:c r="A35" s="5"/>
       <x:c r="B35" s="5" t="s">
-        <x:v>190</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C35" s="4">
         <x:v>26.780000000000001</x:v>
@@ -4995,16 +4998,16 @@
         <x:v>72.814342137680001</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G35">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G35" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:7">
       <x:c r="A36" s="5"/>
       <x:c r="B36" s="5" t="s">
-        <x:v>190</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C36" s="4">
         <x:v>46.189999999999998</x:v>
@@ -5017,16 +5020,16 @@
         <x:v>125.58978578563999</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G36">
-        <x:v>1</x:v>
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="G36" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:7">
       <x:c r="A37" s="5"/>
       <x:c r="B37" s="8" t="s">
-        <x:v>176</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C37" s="4">
         <x:v>77.260000000000005</x:v>
@@ -5039,16 +5042,16 @@
         <x:v>210.06856137256003</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="G37">
-        <x:v>1</x:v>
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="G37" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:7">
       <x:c r="A38" s="5"/>
       <x:c r="B38" s="8" t="s">
-        <x:v>176</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C38" s="4">
         <x:v>56.880000000000003</x:v>
@@ -5061,16 +5064,16 @@
         <x:v>154.65570503328001</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G38">
-        <x:v>1</x:v>
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="G38" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:7">
       <x:c r="A39" s="5"/>
       <x:c r="B39" s="8" t="s">
-        <x:v>176</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C39" s="4">
         <x:v>190.88999999999999</x:v>
@@ -5083,16 +5086,16 @@
         <x:v>519.02650375884002</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G39">
-        <x:v>1</x:v>
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="G39" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:7">
       <x:c r="A40" s="5"/>
       <x:c r="B40" s="8" t="s">
-        <x:v>176</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C40" s="4">
         <x:v>69.030000000000001</x:v>
@@ -5105,16 +5108,16 @@
         <x:v>187.69133822868</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="G40">
-        <x:v>1</x:v>
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="G40" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:7">
       <x:c r="A41" s="5"/>
       <x:c r="B41" s="8" t="s">
-        <x:v>176</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C41" s="4">
         <x:v>61.579999999999998</x:v>
@@ -5127,16 +5130,16 @@
         <x:v>167.43492116648</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="G41">
-        <x:v>1</x:v>
+        <x:v>314</x:v>
+      </x:c>
+      <x:c r="G41" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:7">
       <x:c r="A42" s="5"/>
       <x:c r="B42" s="8" t="s">
-        <x:v>176</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C42" s="4">
         <x:v>40.310000000000002</x:v>
@@ -5149,16 +5152,16 @@
         <x:v>109.60217070836001</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="G42">
-        <x:v>1</x:v>
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="G42" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:7">
       <x:c r="A43" s="5"/>
       <x:c r="B43" s="8" t="s">
-        <x:v>199</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C43" s="4">
         <x:v>26.510000000000002</x:v>
@@ -5171,16 +5174,16 @@
         <x:v>72.080216955560005</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G43">
-        <x:v>1</x:v>
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="G43" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:7">
       <x:c r="A44" s="5"/>
       <x:c r="B44" s="5" t="s">
-        <x:v>174</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C44" s="4">
         <x:v>22.440000000000001</x:v>
@@ -5193,16 +5196,16 @@
         <x:v>61.013959580640005</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G44">
-        <x:v>1</x:v>
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="G44" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:7">
       <x:c r="A45" s="5"/>
       <x:c r="B45" s="8" t="s">
-        <x:v>176</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C45" s="4">
         <x:v>43.369999999999997</x:v>
@@ -5215,16 +5218,16 @@
         <x:v>117.92225610572</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="G45">
-        <x:v>1</x:v>
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="G45" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:7">
       <x:c r="A46" s="5"/>
       <x:c r="B46" s="8" t="s">
-        <x:v>176</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C46" s="4">
         <x:v>47.539999999999999</x:v>
@@ -5237,16 +5240,16 @@
         <x:v>129.26041169624</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G46">
-        <x:v>1</x:v>
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="G46" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:7">
       <x:c r="A47" s="5"/>
       <x:c r="B47" s="8" t="s">
-        <x:v>176</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C47" s="4">
         <x:v>46.100000000000001</x:v>
@@ -5259,16 +5262,16 @@
         <x:v>125.3450773916</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G47">
-        <x:v>1</x:v>
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="G47" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:7">
       <x:c r="A48" s="5"/>
       <x:c r="B48" s="8" t="s">
-        <x:v>176</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C48" s="4">
         <x:v>45.299999999999997</x:v>
@@ -5281,16 +5284,16 @@
         <x:v>123.1698916668</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="G48">
-        <x:v>1</x:v>
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="G48" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:7">
       <x:c r="A49" s="5"/>
       <x:c r="B49" s="8" t="s">
-        <x:v>176</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C49" s="4">
         <x:v>48.030000000000001</x:v>
@@ -5303,16 +5306,16 @@
         <x:v>130.59271295268002</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="G49">
-        <x:v>1</x:v>
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G49" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:7">
       <x:c r="A50" s="5"/>
       <x:c r="B50" s="8" t="s">
-        <x:v>176</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C50" s="4">
         <x:v>48.359999999999999</x:v>
@@ -5325,16 +5328,16 @@
         <x:v>131.48997706416</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="G50">
-        <x:v>1</x:v>
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="G50" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:7">
       <x:c r="A51" s="5"/>
       <x:c r="B51" s="8" t="s">
-        <x:v>176</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C51" s="4">
         <x:v>71.439999999999998</x:v>
@@ -5347,16 +5350,16 @@
         <x:v>194.24408522464</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G51">
-        <x:v>1</x:v>
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="G51" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:7">
       <x:c r="A52" s="5"/>
       <x:c r="B52" s="8" t="s">
-        <x:v>176</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C52" s="4">
         <x:v>45.649999999999999</x:v>
@@ -5369,16 +5372,16 @@
         <x:v>124.1215354214</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="G52">
-        <x:v>1</x:v>
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G52" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:7">
       <x:c r="A53" s="5"/>
       <x:c r="B53" s="8" t="s">
-        <x:v>176</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C53" s="4">
         <x:v>42.670000000000002</x:v>
@@ -5391,10 +5394,10 @@
         <x:v>116.01896859652001</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="G53">
-        <x:v>1</x:v>
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="G53" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5424,28 +5427,28 @@
   <x:sheetData>
     <x:row r="3" spans="2:7">
       <x:c r="B3" s="2" t="s">
-        <x:v>164</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C3" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D3" s="8" t="s">
-        <x:v>168</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E3" s="8" t="s">
-        <x:v>161</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="F3" s="8" t="s">
-        <x:v>151</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="G3" t="s">
-        <x:v>180</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="2"/>
       <x:c r="B4" s="8" t="s">
-        <x:v>185</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C4" s="10">
         <x:v>13070</x:v>
@@ -5458,16 +5461,16 @@
         <x:v>35534.752596000006</x:v>
       </x:c>
       <x:c r="F4" s="14" t="s">
-        <x:v>337</x:v>
-      </x:c>
-      <x:c r="G4">
-        <x:v>1</x:v>
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="G4" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="2"/>
       <x:c r="B5" s="8" t="s">
-        <x:v>157</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="C5" s="10">
         <x:v>8300</x:v>
@@ -5480,16 +5483,16 @@
         <x:v>22566.063240000003</x:v>
       </x:c>
       <x:c r="F5" s="14" t="s">
-        <x:v>330</x:v>
-      </x:c>
-      <x:c r="G5">
-        <x:v>1</x:v>
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="G5" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="2"/>
       <x:c r="B6" s="8" t="s">
-        <x:v>185</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C6" s="10">
         <x:v>7050</x:v>
@@ -5502,16 +5505,16 @@
         <x:v>19167.559740000001</x:v>
       </x:c>
       <x:c r="F6" s="14" t="s">
-        <x:v>215</x:v>
-      </x:c>
-      <x:c r="G6">
-        <x:v>1</x:v>
+        <x:v>344</x:v>
+      </x:c>
+      <x:c r="G6" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="2"/>
       <x:c r="B7" s="8" t="s">
-        <x:v>187</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C7" s="10">
         <x:v>6800</x:v>
@@ -5524,16 +5527,16 @@
         <x:v>18487.859040000003</x:v>
       </x:c>
       <x:c r="F7" s="14" t="s">
-        <x:v>287</x:v>
-      </x:c>
-      <x:c r="G7">
-        <x:v>1</x:v>
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="G7" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="2"/>
       <x:c r="B8" s="8" t="s">
-        <x:v>185</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C8" s="10">
         <x:v>6450</x:v>
@@ -5546,16 +5549,16 @@
         <x:v>17536.278060000001</x:v>
       </x:c>
       <x:c r="F8" s="14" t="s">
-        <x:v>288</x:v>
-      </x:c>
-      <x:c r="G8">
-        <x:v>1</x:v>
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="G8" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="2"/>
       <x:c r="B9" s="8" t="s">
-        <x:v>179</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C9" s="10">
         <x:v>6210</x:v>
@@ -5568,16 +5571,16 @@
         <x:v>16883.765388</x:v>
       </x:c>
       <x:c r="F9" s="14" t="s">
-        <x:v>207</x:v>
-      </x:c>
-      <x:c r="G9">
-        <x:v>1</x:v>
+        <x:v>343</x:v>
+      </x:c>
+      <x:c r="G9" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="2"/>
       <x:c r="B10" s="8" t="s">
-        <x:v>158</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="C10" s="10">
         <x:v>5470</x:v>
@@ -5590,16 +5593,16 @@
         <x:v>14871.851316</x:v>
       </x:c>
       <x:c r="F10" s="14" t="s">
-        <x:v>209</x:v>
-      </x:c>
-      <x:c r="G10">
-        <x:v>1</x:v>
+        <x:v>345</x:v>
+      </x:c>
+      <x:c r="G10" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="2"/>
       <x:c r="B11" s="8" t="s">
-        <x:v>155</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="C11" s="10">
         <x:v>5280</x:v>
@@ -5612,16 +5615,16 @@
         <x:v>14355.278784</x:v>
       </x:c>
       <x:c r="F11" s="14" t="s">
-        <x:v>327</x:v>
-      </x:c>
-      <x:c r="G11">
-        <x:v>1</x:v>
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="G11" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="2"/>
       <x:c r="B12" s="8" t="s">
-        <x:v>179</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C12" s="10">
         <x:v>4090</x:v>
@@ -5634,16 +5637,16 @@
         <x:v>11119.903452</x:v>
       </x:c>
       <x:c r="F12" s="14" t="s">
-        <x:v>332</x:v>
-      </x:c>
-      <x:c r="G12">
-        <x:v>1</x:v>
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="G12" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="2"/>
       <x:c r="B13" s="8" t="s">
-        <x:v>155</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="C13" s="10">
         <x:v>3700</x:v>
@@ -5656,16 +5659,16 @@
         <x:v>10059.570360000002</x:v>
       </x:c>
       <x:c r="F13" s="14" t="s">
-        <x:v>314</x:v>
-      </x:c>
-      <x:c r="G13">
-        <x:v>1</x:v>
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="G13" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="2"/>
       <x:c r="B14" s="8" t="s">
-        <x:v>177</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C14" s="2">
         <x:v>3630</x:v>
@@ -5678,16 +5681,16 @@
         <x:v>9869.2541639999999</x:v>
       </x:c>
       <x:c r="F14" s="16" t="s">
-        <x:v>307</x:v>
-      </x:c>
-      <x:c r="G14">
-        <x:v>1</x:v>
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="G14" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7">
       <x:c r="A15" s="2"/>
       <x:c r="B15" s="8" t="s">
-        <x:v>155</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="C15" s="10">
         <x:v>3430</x:v>
@@ -5700,16 +5703,16 @@
         <x:v>9325.4936040000011</x:v>
       </x:c>
       <x:c r="F15" s="16" t="s">
-        <x:v>325</x:v>
-      </x:c>
-      <x:c r="G15">
-        <x:v>1</x:v>
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="G15" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7">
       <x:c r="A16" s="2"/>
       <x:c r="B16" s="8" t="s">
-        <x:v>156</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="C16" s="10">
         <x:v>3430</x:v>
@@ -5722,16 +5725,16 @@
         <x:v>9325.4936040000011</x:v>
       </x:c>
       <x:c r="F16" s="16" t="s">
-        <x:v>240</x:v>
-      </x:c>
-      <x:c r="G16">
-        <x:v>1</x:v>
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="G16" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7">
       <x:c r="A17" s="2"/>
       <x:c r="B17" s="8" t="s">
-        <x:v>150</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="C17" s="10">
         <x:v>3360</x:v>
@@ -5744,16 +5747,16 @@
         <x:v>9135.1774080000014</x:v>
       </x:c>
       <x:c r="F17" s="16" t="s">
-        <x:v>257</x:v>
-      </x:c>
-      <x:c r="G17">
-        <x:v>1</x:v>
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="G17" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7">
       <x:c r="A18" s="2"/>
       <x:c r="B18" s="8" t="s">
-        <x:v>169</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C18" s="10">
         <x:v>3290</x:v>
@@ -5766,16 +5769,16 @@
         <x:v>8944.8612119999998</x:v>
       </x:c>
       <x:c r="F18" s="16" t="s">
-        <x:v>202</x:v>
-      </x:c>
-      <x:c r="G18">
-        <x:v>1</x:v>
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="G18" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:7">
       <x:c r="A19" s="2"/>
       <x:c r="B19" s="8" t="s">
-        <x:v>155</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="C19" s="10">
         <x:v>3280</x:v>
@@ -5788,16 +5791,16 @@
         <x:v>8917.6731840000011</x:v>
       </x:c>
       <x:c r="F19" s="16" t="s">
-        <x:v>251</x:v>
-      </x:c>
-      <x:c r="G19">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="G19" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:7">
       <x:c r="A20" s="2"/>
       <x:c r="B20" s="8" t="s">
-        <x:v>184</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C20" s="10">
         <x:v>3230</x:v>
@@ -5810,16 +5813,16 @@
         <x:v>8781.7330440000005</x:v>
       </x:c>
       <x:c r="F20" s="16" t="s">
-        <x:v>217</x:v>
-      </x:c>
-      <x:c r="G20">
-        <x:v>1</x:v>
+        <x:v>350</x:v>
+      </x:c>
+      <x:c r="G20" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7">
       <x:c r="A21" s="2"/>
       <x:c r="B21" s="8" t="s">
-        <x:v>184</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C21" s="10">
         <x:v>3180</x:v>
@@ -5832,16 +5835,16 @@
         <x:v>8645.7929039999999</x:v>
       </x:c>
       <x:c r="F21" s="16" t="s">
-        <x:v>349</x:v>
-      </x:c>
-      <x:c r="G21">
-        <x:v>1</x:v>
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="G21" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:7">
       <x:c r="A22" s="2"/>
       <x:c r="B22" s="8" t="s">
-        <x:v>156</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="C22" s="10">
         <x:v>3120</x:v>
@@ -5854,16 +5857,16 @@
         <x:v>8482.6647360000006</x:v>
       </x:c>
       <x:c r="F22" s="16" t="s">
-        <x:v>264</x:v>
-      </x:c>
-      <x:c r="G22">
-        <x:v>1</x:v>
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="G22" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:7">
       <x:c r="A23" s="2"/>
       <x:c r="B23" s="8" t="s">
-        <x:v>185</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C23" s="10">
         <x:v>2920</x:v>
@@ -5876,16 +5879,16 @@
         <x:v>7938.9041760000009</x:v>
       </x:c>
       <x:c r="F23" s="16" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="G23">
-        <x:v>1</x:v>
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="G23" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:7">
       <x:c r="A24" s="2"/>
       <x:c r="B24" s="8" t="s">
-        <x:v>185</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C24" s="10">
         <x:v>2840</x:v>
@@ -5898,16 +5901,16 @@
         <x:v>7721.3999520000007</x:v>
       </x:c>
       <x:c r="F24" s="14" t="s">
-        <x:v>232</x:v>
-      </x:c>
-      <x:c r="G24">
-        <x:v>1</x:v>
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="G24" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:7">
       <x:c r="A25" s="2"/>
       <x:c r="B25" s="8" t="s">
-        <x:v>184</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C25" s="10">
         <x:v>2770</x:v>
@@ -5920,16 +5923,16 @@
         <x:v>7531.0837560000009</x:v>
       </x:c>
       <x:c r="F25" s="14" t="s">
-        <x:v>210</x:v>
-      </x:c>
-      <x:c r="G25">
-        <x:v>1</x:v>
+        <x:v>346</x:v>
+      </x:c>
+      <x:c r="G25" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:7">
       <x:c r="A26" s="2"/>
       <x:c r="B26" s="8" t="s">
-        <x:v>184</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C26" s="10">
         <x:v>2770</x:v>
@@ -5942,16 +5945,16 @@
         <x:v>7531.0837560000009</x:v>
       </x:c>
       <x:c r="F26" s="14" t="s">
-        <x:v>289</x:v>
-      </x:c>
-      <x:c r="G26">
-        <x:v>1</x:v>
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="G26" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7">
       <x:c r="A27" s="2"/>
       <x:c r="B27" s="8" t="s">
-        <x:v>173</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C27" s="10">
         <x:v>8030</x:v>
@@ -5964,16 +5967,16 @@
         <x:v>21831.986484000001</x:v>
       </x:c>
       <x:c r="F27" s="14" t="s">
-        <x:v>201</x:v>
-      </x:c>
-      <x:c r="G27">
-        <x:v>1</x:v>
+        <x:v>341</x:v>
+      </x:c>
+      <x:c r="G27" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:7">
       <x:c r="A28" s="2"/>
       <x:c r="B28" s="8" t="s">
-        <x:v>185</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C28" s="10">
         <x:v>7780</x:v>
@@ -5986,16 +5989,16 @@
         <x:v>21152.285784</x:v>
       </x:c>
       <x:c r="F28" s="14" t="s">
-        <x:v>162</x:v>
-      </x:c>
-      <x:c r="G28">
-        <x:v>1</x:v>
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="G28" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:7">
       <x:c r="A29" s="2"/>
       <x:c r="B29" s="8" t="s">
-        <x:v>185</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C29" s="10">
         <x:v>7500</x:v>
@@ -6008,16 +6011,16 @@
         <x:v>20391.021000000001</x:v>
       </x:c>
       <x:c r="F29" s="14" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="G29">
-        <x:v>1</x:v>
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="G29" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:7">
       <x:c r="A30" s="2"/>
       <x:c r="B30" s="8" t="s">
-        <x:v>184</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C30" s="10">
         <x:v>6460</x:v>
@@ -6030,16 +6033,16 @@
         <x:v>17563.466088000001</x:v>
       </x:c>
       <x:c r="F30" s="14" t="s">
-        <x:v>294</x:v>
-      </x:c>
-      <x:c r="G30">
-        <x:v>1</x:v>
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="G30" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:7">
       <x:c r="A31" s="2"/>
       <x:c r="B31" s="8" t="s">
-        <x:v>185</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C31" s="10">
         <x:v>6330</x:v>
@@ -6052,16 +6055,16 @@
         <x:v>17210.021724000002</x:v>
       </x:c>
       <x:c r="F31" s="14" t="s">
-        <x:v>203</x:v>
-      </x:c>
-      <x:c r="G31">
-        <x:v>1</x:v>
+        <x:v>336</x:v>
+      </x:c>
+      <x:c r="G31" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:7">
       <x:c r="A32" s="2"/>
       <x:c r="B32" s="8" t="s">
-        <x:v>184</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C32" s="10">
         <x:v>6050</x:v>
@@ -6074,16 +6077,16 @@
         <x:v>16448.756940000003</x:v>
       </x:c>
       <x:c r="F32" s="14" t="s">
-        <x:v>248</x:v>
-      </x:c>
-      <x:c r="G32">
-        <x:v>1</x:v>
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="G32" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:7">
       <x:c r="A33" s="2"/>
       <x:c r="B33" s="8" t="s">
-        <x:v>185</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C33" s="10">
         <x:v>5490</x:v>
@@ -6096,16 +6099,16 @@
         <x:v>14926.227372000001</x:v>
       </x:c>
       <x:c r="F33" s="14" t="s">
-        <x:v>306</x:v>
-      </x:c>
-      <x:c r="G33">
-        <x:v>1</x:v>
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="G33" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:7">
       <x:c r="A34" s="2"/>
       <x:c r="B34" s="8" t="s">
-        <x:v>184</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C34" s="10">
         <x:v>5330</x:v>
@@ -6118,16 +6121,16 @@
         <x:v>14491.218924000001</x:v>
       </x:c>
       <x:c r="F34" s="14" t="s">
-        <x:v>250</x:v>
-      </x:c>
-      <x:c r="G34">
-        <x:v>1</x:v>
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="G34" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:7">
       <x:c r="A35" s="2"/>
       <x:c r="B35" s="8" t="s">
-        <x:v>185</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C35" s="10">
         <x:v>5310</x:v>
@@ -6140,16 +6143,16 @@
         <x:v>14436.842868000002</x:v>
       </x:c>
       <x:c r="F35" s="14" t="s">
-        <x:v>242</x:v>
-      </x:c>
-      <x:c r="G35">
-        <x:v>1</x:v>
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="G35" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:7">
       <x:c r="A36" s="2"/>
       <x:c r="B36" s="8" t="s">
-        <x:v>184</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C36" s="10">
         <x:v>5040</x:v>
@@ -6162,16 +6165,16 @@
         <x:v>13702.766112000001</x:v>
       </x:c>
       <x:c r="F36" s="14" t="s">
-        <x:v>225</x:v>
-      </x:c>
-      <x:c r="G36">
-        <x:v>1</x:v>
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="G36" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:7">
       <x:c r="A37" s="2"/>
       <x:c r="B37" s="8" t="s">
-        <x:v>155</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="C37" s="10">
         <x:v>4800</x:v>
@@ -6184,16 +6187,16 @@
         <x:v>13050.25344</x:v>
       </x:c>
       <x:c r="F37" s="14" t="s">
-        <x:v>219</x:v>
-      </x:c>
-      <x:c r="G37">
-        <x:v>1</x:v>
+        <x:v>325</x:v>
+      </x:c>
+      <x:c r="G37" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:7">
       <x:c r="A38" s="2"/>
       <x:c r="B38" s="8" t="s">
-        <x:v>185</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C38" s="10">
         <x:v>4270</x:v>
@@ -6206,16 +6209,16 @@
         <x:v>11609.287956</x:v>
       </x:c>
       <x:c r="F38" s="14" t="s">
-        <x:v>315</x:v>
-      </x:c>
-      <x:c r="G38">
-        <x:v>1</x:v>
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="G38" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:7">
       <x:c r="A39" s="2"/>
       <x:c r="B39" s="8" t="s">
-        <x:v>185</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C39" s="10">
         <x:v>4220</x:v>
@@ -6228,16 +6231,16 @@
         <x:v>11473.347816000001</x:v>
       </x:c>
       <x:c r="F39" s="14" t="s">
-        <x:v>311</x:v>
-      </x:c>
-      <x:c r="G39">
-        <x:v>1</x:v>
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="G39" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:7">
       <x:c r="A40" s="2"/>
       <x:c r="B40" s="8" t="s">
-        <x:v>184</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C40" s="10">
         <x:v>3940</x:v>
@@ -6250,16 +6253,16 @@
         <x:v>10712.083032</x:v>
       </x:c>
       <x:c r="F40" s="14" t="s">
-        <x:v>316</x:v>
-      </x:c>
-      <x:c r="G40">
-        <x:v>1</x:v>
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="G40" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:7">
       <x:c r="A41" s="2"/>
       <x:c r="B41" s="8" t="s">
-        <x:v>188</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C41" s="10">
         <x:v>3810</x:v>
@@ -6272,16 +6275,16 @@
         <x:v>10358.638668000001</x:v>
       </x:c>
       <x:c r="F41" s="14" t="s">
-        <x:v>305</x:v>
-      </x:c>
-      <x:c r="G41">
-        <x:v>1</x:v>
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="G41" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:7">
       <x:c r="A42" s="2"/>
       <x:c r="B42" s="8" t="s">
-        <x:v>188</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C42" s="10">
         <x:v>3770</x:v>
@@ -6294,16 +6297,16 @@
         <x:v>10249.886556000001</x:v>
       </x:c>
       <x:c r="F42" s="14" t="s">
-        <x:v>214</x:v>
-      </x:c>
-      <x:c r="G42">
-        <x:v>1</x:v>
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="G42" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:7">
       <x:c r="A43" s="2"/>
       <x:c r="B43" s="8" t="s">
-        <x:v>188</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C43" s="10">
         <x:v>3760</x:v>
@@ -6316,16 +6319,16 @@
         <x:v>10222.698528000001</x:v>
       </x:c>
       <x:c r="F43" s="14" t="s">
-        <x:v>253</x:v>
-      </x:c>
-      <x:c r="G43">
-        <x:v>1</x:v>
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="G43" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:7">
       <x:c r="A44" s="2"/>
       <x:c r="B44" s="8" t="s">
-        <x:v>185</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C44" s="10">
         <x:v>3750</x:v>
@@ -6338,16 +6341,16 @@
         <x:v>10195.5105</x:v>
       </x:c>
       <x:c r="F44" s="14" t="s">
-        <x:v>298</x:v>
-      </x:c>
-      <x:c r="G44">
-        <x:v>1</x:v>
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="G44" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:7">
       <x:c r="A45" s="2"/>
       <x:c r="B45" s="8" t="s">
-        <x:v>184</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C45" s="10">
         <x:v>3740</x:v>
@@ -6360,16 +6363,16 @@
         <x:v>10168.322472</x:v>
       </x:c>
       <x:c r="F45" s="14" t="s">
-        <x:v>208</x:v>
-      </x:c>
-      <x:c r="G45">
-        <x:v>1</x:v>
+        <x:v>347</x:v>
+      </x:c>
+      <x:c r="G45" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:7">
       <x:c r="A46" s="2"/>
       <x:c r="B46" s="8" t="s">
-        <x:v>185</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C46" s="10">
         <x:v>3530</x:v>
@@ -6382,16 +6385,16 @@
         <x:v>9597.3738840000005</x:v>
       </x:c>
       <x:c r="F46" s="14" t="s">
-        <x:v>263</x:v>
-      </x:c>
-      <x:c r="G46">
-        <x:v>1</x:v>
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="G46" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:7">
       <x:c r="A47" s="2"/>
       <x:c r="B47" s="8" t="s">
-        <x:v>185</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C47" s="10">
         <x:v>3380</x:v>
@@ -6404,16 +6407,16 @@
         <x:v>9189.5534640000005</x:v>
       </x:c>
       <x:c r="F47" s="14" t="s">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="G47">
-        <x:v>1</x:v>
+        <x:v>321</x:v>
+      </x:c>
+      <x:c r="G47" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:7">
       <x:c r="A48" s="2"/>
       <x:c r="B48" s="8" t="s">
-        <x:v>188</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C48" s="10">
         <x:v>10000</x:v>
@@ -6426,16 +6429,16 @@
         <x:v>27188.028000000002</x:v>
       </x:c>
       <x:c r="F48" s="14" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="G48">
-        <x:v>1</x:v>
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="G48" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:7">
       <x:c r="A49" s="2"/>
       <x:c r="B49" s="8" t="s">
-        <x:v>188</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C49" s="10">
         <x:v>8600</x:v>
@@ -6448,16 +6451,16 @@
         <x:v>23381.704080000003</x:v>
       </x:c>
       <x:c r="F49" s="14" t="s">
-        <x:v>261</x:v>
-      </x:c>
-      <x:c r="G49">
-        <x:v>1</x:v>
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="G49" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:7">
       <x:c r="A50" s="2"/>
       <x:c r="B50" s="8" t="s">
-        <x:v>188</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C50" s="10">
         <x:v>6050</x:v>
@@ -6470,16 +6473,16 @@
         <x:v>16448.756940000003</x:v>
       </x:c>
       <x:c r="F50" s="14" t="s">
-        <x:v>302</x:v>
-      </x:c>
-      <x:c r="G50">
-        <x:v>1</x:v>
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="G50" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:7">
       <x:c r="A51" s="2"/>
       <x:c r="B51" s="8" t="s">
-        <x:v>188</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C51" s="10">
         <x:v>5580</x:v>
@@ -6492,16 +6495,16 @@
         <x:v>15170.919624000002</x:v>
       </x:c>
       <x:c r="F51" s="14" t="s">
-        <x:v>238</x:v>
-      </x:c>
-      <x:c r="G51">
-        <x:v>1</x:v>
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="G51" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:7">
       <x:c r="A52" s="2"/>
       <x:c r="B52" s="8" t="s">
-        <x:v>185</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C52" s="10">
         <x:v>3120</x:v>
@@ -6514,16 +6517,16 @@
         <x:v>8482.6647360000006</x:v>
       </x:c>
       <x:c r="F52" s="14" t="s">
-        <x:v>246</x:v>
-      </x:c>
-      <x:c r="G52">
-        <x:v>1</x:v>
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="G52" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:7">
       <x:c r="A53" s="2"/>
       <x:c r="B53" s="8" t="s">
-        <x:v>184</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C53" s="10">
         <x:v>4580</x:v>
@@ -6536,10 +6539,10 @@
         <x:v>12452.116824000001</x:v>
       </x:c>
       <x:c r="F53" s="14" t="s">
-        <x:v>317</x:v>
-      </x:c>
-      <x:c r="G53">
-        <x:v>1</x:v>
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="G53" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6620,28 +6623,28 @@
   <x:sheetData>
     <x:row r="3" spans="2:7">
       <x:c r="B3" s="2" t="s">
-        <x:v>164</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C3" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D3" s="8" t="s">
-        <x:v>168</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E3" s="8" t="s">
-        <x:v>161</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="F3" s="8" t="s">
-        <x:v>151</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="G3" t="s">
-        <x:v>180</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="2"/>
       <x:c r="B4" s="8" t="s">
-        <x:v>191</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C4" s="10">
         <x:v>10330</x:v>
@@ -6654,16 +6657,16 @@
         <x:v>28085.23</x:v>
       </x:c>
       <x:c r="F4" s="14" t="s">
-        <x:v>342</x:v>
-      </x:c>
-      <x:c r="G4">
-        <x:v>1</x:v>
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="G4" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="2"/>
       <x:c r="B5" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C5" s="10">
         <x:v>7130</x:v>
@@ -6676,16 +6679,16 @@
         <x:v>19385.060000000001</x:v>
       </x:c>
       <x:c r="F5" s="14" t="s">
-        <x:v>323</x:v>
-      </x:c>
-      <x:c r="G5">
-        <x:v>1</x:v>
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="G5" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="2"/>
       <x:c r="B6" s="8" t="s">
-        <x:v>191</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C6" s="10">
         <x:v>6750</x:v>
@@ -6698,16 +6701,16 @@
         <x:v>18351.919999999998</x:v>
       </x:c>
       <x:c r="F6" s="14" t="s">
-        <x:v>285</x:v>
-      </x:c>
-      <x:c r="G6">
-        <x:v>1</x:v>
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="G6" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="2"/>
       <x:c r="B7" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C7" s="10">
         <x:v>4120</x:v>
@@ -6720,16 +6723,16 @@
         <x:v>11201.469999999999</x:v>
       </x:c>
       <x:c r="F7" s="14" t="s">
-        <x:v>222</x:v>
-      </x:c>
-      <x:c r="G7">
-        <x:v>1</x:v>
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="G7" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="2"/>
       <x:c r="B8" s="8" t="s">
-        <x:v>191</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C8" s="10">
         <x:v>4070</x:v>
@@ -6742,16 +6745,16 @@
         <x:v>11065.530000000001</x:v>
       </x:c>
       <x:c r="F8" s="14" t="s">
-        <x:v>239</x:v>
-      </x:c>
-      <x:c r="G8">
-        <x:v>1</x:v>
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="G8" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="2"/>
       <x:c r="B9" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C9" s="10">
         <x:v>3700</x:v>
@@ -6764,16 +6767,16 @@
         <x:v>10059.57</x:v>
       </x:c>
       <x:c r="F9" s="14" t="s">
-        <x:v>336</x:v>
-      </x:c>
-      <x:c r="G9">
-        <x:v>1</x:v>
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="G9" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="2"/>
       <x:c r="B10" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C10" s="10">
         <x:v>3660</x:v>
@@ -6786,16 +6789,16 @@
         <x:v>9950.8199999999997</x:v>
       </x:c>
       <x:c r="F10" s="14" t="s">
-        <x:v>226</x:v>
-      </x:c>
-      <x:c r="G10">
-        <x:v>1</x:v>
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="G10" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="2"/>
       <x:c r="B11" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C11" s="10">
         <x:v>3440</x:v>
@@ -6808,16 +6811,16 @@
         <x:v>9352.6800000000003</x:v>
       </x:c>
       <x:c r="F11" s="14" t="s">
-        <x:v>331</x:v>
-      </x:c>
-      <x:c r="G11">
-        <x:v>1</x:v>
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="G11" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="2"/>
       <x:c r="B12" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C12" s="10">
         <x:v>2230</x:v>
@@ -6830,16 +6833,16 @@
         <x:v>6062.9300000000003</x:v>
       </x:c>
       <x:c r="F12" s="14" t="s">
-        <x:v>318</x:v>
-      </x:c>
-      <x:c r="G12">
-        <x:v>1</x:v>
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="G12" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="2"/>
       <x:c r="B13" s="8" t="s">
-        <x:v>191</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C13" s="10">
         <x:v>1730</x:v>
@@ -6852,16 +6855,16 @@
         <x:v>4703.5299999999997</x:v>
       </x:c>
       <x:c r="F13" s="14" t="s">
-        <x:v>268</x:v>
-      </x:c>
-      <x:c r="G13">
-        <x:v>1</x:v>
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="G13" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="2"/>
       <x:c r="B14" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C14" s="10">
         <x:v>1720</x:v>
@@ -6874,16 +6877,16 @@
         <x:v>4676.3400000000001</x:v>
       </x:c>
       <x:c r="F14" s="14" t="s">
-        <x:v>313</x:v>
-      </x:c>
-      <x:c r="G14">
-        <x:v>1</x:v>
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="G14" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7">
       <x:c r="A15" s="2"/>
       <x:c r="B15" s="8" t="s">
-        <x:v>191</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C15" s="10">
         <x:v>1680</x:v>
@@ -6896,16 +6899,16 @@
         <x:v>4567.5900000000001</x:v>
       </x:c>
       <x:c r="F15" s="14" t="s">
-        <x:v>259</x:v>
-      </x:c>
-      <x:c r="G15">
-        <x:v>1</x:v>
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="G15" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7">
       <x:c r="A16" s="2"/>
       <x:c r="B16" s="8" t="s">
-        <x:v>191</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C16" s="10">
         <x:v>1650</x:v>
@@ -6918,16 +6921,16 @@
         <x:v>4486.0200000000004</x:v>
       </x:c>
       <x:c r="F16" s="14" t="s">
-        <x:v>322</x:v>
-      </x:c>
-      <x:c r="G16">
-        <x:v>1</x:v>
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="G16" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7">
       <x:c r="A17" s="2"/>
       <x:c r="B17" s="8" t="s">
-        <x:v>191</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C17" s="10">
         <x:v>1600</x:v>
@@ -6940,16 +6943,16 @@
         <x:v>4350.0799999999999</x:v>
       </x:c>
       <x:c r="F17" s="14" t="s">
-        <x:v>228</x:v>
-      </x:c>
-      <x:c r="G17">
-        <x:v>1</x:v>
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="G17" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7">
       <x:c r="A18" s="2"/>
       <x:c r="B18" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C18" s="10">
         <x:v>1590</x:v>
@@ -6962,16 +6965,16 @@
         <x:v>4322.8999999999996</x:v>
       </x:c>
       <x:c r="F18" s="14" t="s">
-        <x:v>284</x:v>
-      </x:c>
-      <x:c r="G18">
-        <x:v>1</x:v>
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="G18" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:7">
       <x:c r="A19" s="2"/>
       <x:c r="B19" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C19" s="10">
         <x:v>1520</x:v>
@@ -6984,16 +6987,16 @@
         <x:v>4132.5799999999999</x:v>
       </x:c>
       <x:c r="F19" s="14" t="s">
-        <x:v>267</x:v>
-      </x:c>
-      <x:c r="G19">
-        <x:v>1</x:v>
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="G19" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:7">
       <x:c r="A20" s="2"/>
       <x:c r="B20" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C20" s="10">
         <x:v>1500</x:v>
@@ -7006,16 +7009,16 @@
         <x:v>4078.1999999999998</x:v>
       </x:c>
       <x:c r="F20" s="14" t="s">
-        <x:v>300</x:v>
-      </x:c>
-      <x:c r="G20">
-        <x:v>1</x:v>
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="G20" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7">
       <x:c r="A21" s="2"/>
       <x:c r="B21" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C21" s="10">
         <x:v>1490</x:v>
@@ -7028,16 +7031,16 @@
         <x:v>4051.02</x:v>
       </x:c>
       <x:c r="F21" s="14" t="s">
-        <x:v>321</x:v>
-      </x:c>
-      <x:c r="G21">
-        <x:v>1</x:v>
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="G21" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:7">
       <x:c r="A22" s="2"/>
       <x:c r="B22" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C22" s="10">
         <x:v>1480</x:v>
@@ -7050,16 +7053,16 @@
         <x:v>4023.8299999999999</x:v>
       </x:c>
       <x:c r="F22" s="14" t="s">
-        <x:v>260</x:v>
-      </x:c>
-      <x:c r="G22">
-        <x:v>1</x:v>
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="G22" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:7">
       <x:c r="A23" s="2"/>
       <x:c r="B23" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C23" s="10">
         <x:v>1480</x:v>
@@ -7072,16 +7075,16 @@
         <x:v>4023.8299999999999</x:v>
       </x:c>
       <x:c r="F23" s="14" t="s">
-        <x:v>279</x:v>
-      </x:c>
-      <x:c r="G23">
-        <x:v>1</x:v>
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="G23" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:7">
       <x:c r="A24" s="2"/>
       <x:c r="B24" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C24" s="10">
         <x:v>1440</x:v>
@@ -7094,16 +7097,16 @@
         <x:v>3915.0799999999999</x:v>
       </x:c>
       <x:c r="F24" s="14" t="s">
-        <x:v>329</x:v>
-      </x:c>
-      <x:c r="G24">
-        <x:v>1</x:v>
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="G24" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:7">
       <x:c r="A25" s="2"/>
       <x:c r="B25" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C25" s="10">
         <x:v>1430</x:v>
@@ -7116,16 +7119,16 @@
         <x:v>3887.8899999999999</x:v>
       </x:c>
       <x:c r="F25" s="14" t="s">
-        <x:v>252</x:v>
-      </x:c>
-      <x:c r="G25">
-        <x:v>1</x:v>
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="G25" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:7">
       <x:c r="A26" s="2"/>
       <x:c r="B26" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C26" s="10">
         <x:v>1430</x:v>
@@ -7138,16 +7141,16 @@
         <x:v>3887.8899999999999</x:v>
       </x:c>
       <x:c r="F26" s="14" t="s">
-        <x:v>301</x:v>
-      </x:c>
-      <x:c r="G26">
-        <x:v>1</x:v>
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="G26" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7">
       <x:c r="A27" s="2"/>
       <x:c r="B27" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C27" s="10">
         <x:v>1410</x:v>
@@ -7160,16 +7163,16 @@
         <x:v>3833.5100000000002</x:v>
       </x:c>
       <x:c r="F27" s="14" t="s">
-        <x:v>224</x:v>
-      </x:c>
-      <x:c r="G27">
-        <x:v>1</x:v>
+        <x:v>332</x:v>
+      </x:c>
+      <x:c r="G27" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:7">
       <x:c r="A28" s="2"/>
       <x:c r="B28" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C28" s="10">
         <x:v>1410</x:v>
@@ -7182,16 +7185,16 @@
         <x:v>3833.5100000000002</x:v>
       </x:c>
       <x:c r="F28" s="14" t="s">
-        <x:v>236</x:v>
-      </x:c>
-      <x:c r="G28">
-        <x:v>1</x:v>
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="G28" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:7">
       <x:c r="A29" s="2"/>
       <x:c r="B29" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C29" s="10">
         <x:v>1400</x:v>
@@ -7204,16 +7207,16 @@
         <x:v>3806.3200000000002</x:v>
       </x:c>
       <x:c r="F29" s="14" t="s">
-        <x:v>269</x:v>
-      </x:c>
-      <x:c r="G29">
-        <x:v>1</x:v>
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="G29" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:7">
       <x:c r="A30" s="2"/>
       <x:c r="B30" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C30" s="10">
         <x:v>1370</x:v>
@@ -7226,16 +7229,16 @@
         <x:v>3724.7600000000002</x:v>
       </x:c>
       <x:c r="F30" s="14" t="s">
-        <x:v>216</x:v>
-      </x:c>
-      <x:c r="G30">
-        <x:v>1</x:v>
+        <x:v>349</x:v>
+      </x:c>
+      <x:c r="G30" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:7">
       <x:c r="A31" s="2"/>
       <x:c r="B31" s="8" t="s">
-        <x:v>191</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C31" s="10">
         <x:v>1360</x:v>
@@ -7248,16 +7251,16 @@
         <x:v>3697.5700000000002</x:v>
       </x:c>
       <x:c r="F31" s="14" t="s">
-        <x:v>295</x:v>
-      </x:c>
-      <x:c r="G31">
-        <x:v>1</x:v>
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="G31" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:7">
       <x:c r="A32" s="2"/>
       <x:c r="B32" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C32" s="10">
         <x:v>1340</x:v>
@@ -7270,16 +7273,16 @@
         <x:v>3643.1999999999998</x:v>
       </x:c>
       <x:c r="F32" s="14" t="s">
-        <x:v>213</x:v>
-      </x:c>
-      <x:c r="G32">
-        <x:v>1</x:v>
+        <x:v>338</x:v>
+      </x:c>
+      <x:c r="G32" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:7">
       <x:c r="A33" s="2"/>
       <x:c r="B33" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C33" s="10">
         <x:v>1320</x:v>
@@ -7292,16 +7295,16 @@
         <x:v>3588.8200000000002</x:v>
       </x:c>
       <x:c r="F33" s="14" t="s">
-        <x:v>310</x:v>
-      </x:c>
-      <x:c r="G33">
-        <x:v>1</x:v>
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="G33" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:7">
       <x:c r="A34" s="2"/>
       <x:c r="B34" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C34" s="10">
         <x:v>1320</x:v>
@@ -7314,16 +7317,16 @@
         <x:v>3588.8200000000002</x:v>
       </x:c>
       <x:c r="F34" s="14" t="s">
-        <x:v>245</x:v>
-      </x:c>
-      <x:c r="G34">
-        <x:v>1</x:v>
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="G34" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:7">
       <x:c r="A35" s="2"/>
       <x:c r="B35" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C35" s="10">
         <x:v>1290</x:v>
@@ -7336,16 +7339,16 @@
         <x:v>3507.2600000000002</x:v>
       </x:c>
       <x:c r="F35" s="14" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="G35">
-        <x:v>1</x:v>
+        <x:v>348</x:v>
+      </x:c>
+      <x:c r="G35" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:7">
       <x:c r="A36" s="2"/>
       <x:c r="B36" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C36" s="10">
         <x:v>1240</x:v>
@@ -7358,16 +7361,16 @@
         <x:v>3371.3200000000002</x:v>
       </x:c>
       <x:c r="F36" s="14" t="s">
-        <x:v>204</x:v>
-      </x:c>
-      <x:c r="G36">
-        <x:v>1</x:v>
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="G36" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:7">
       <x:c r="A37" s="2"/>
       <x:c r="B37" s="8" t="s">
-        <x:v>191</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C37" s="10">
         <x:v>1190</x:v>
@@ -7380,16 +7383,16 @@
         <x:v>3235.3800000000001</x:v>
       </x:c>
       <x:c r="F37" s="14" t="s">
-        <x:v>221</x:v>
-      </x:c>
-      <x:c r="G37">
-        <x:v>1</x:v>
+        <x:v>327</x:v>
+      </x:c>
+      <x:c r="G37" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:7">
       <x:c r="A38" s="2"/>
       <x:c r="B38" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C38" s="10">
         <x:v>1180</x:v>
@@ -7402,16 +7405,16 @@
         <x:v>3208.1900000000001</x:v>
       </x:c>
       <x:c r="F38" s="14" t="s">
-        <x:v>265</x:v>
-      </x:c>
-      <x:c r="G38">
-        <x:v>1</x:v>
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="G38" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:7">
       <x:c r="A39" s="2"/>
       <x:c r="B39" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C39" s="10">
         <x:v>1180</x:v>
@@ -7424,16 +7427,16 @@
         <x:v>3208.1900000000001</x:v>
       </x:c>
       <x:c r="F39" s="14" t="s">
-        <x:v>283</x:v>
-      </x:c>
-      <x:c r="G39">
-        <x:v>1</x:v>
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="G39" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:7">
       <x:c r="A40" s="2"/>
       <x:c r="B40" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C40" s="10">
         <x:v>1140</x:v>
@@ -7446,16 +7449,16 @@
         <x:v>3099.4400000000001</x:v>
       </x:c>
       <x:c r="F40" s="14" t="s">
-        <x:v>205</x:v>
-      </x:c>
-      <x:c r="G40">
-        <x:v>1</x:v>
+        <x:v>339</x:v>
+      </x:c>
+      <x:c r="G40" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:7">
       <x:c r="A41" s="2"/>
       <x:c r="B41" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C41" s="10">
         <x:v>1130</x:v>
@@ -7468,16 +7471,16 @@
         <x:v>3072.25</x:v>
       </x:c>
       <x:c r="F41" s="14" t="s">
-        <x:v>334</x:v>
-      </x:c>
-      <x:c r="G41">
-        <x:v>1</x:v>
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="G41" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:7">
       <x:c r="A42" s="2"/>
       <x:c r="B42" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C42" s="10">
         <x:v>4200</x:v>
@@ -7490,16 +7493,16 @@
         <x:v>11418.969999999999</x:v>
       </x:c>
       <x:c r="F42" s="16" t="s">
-        <x:v>230</x:v>
-      </x:c>
-      <x:c r="G42">
-        <x:v>1</x:v>
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="G42" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:7">
       <x:c r="A43" s="2"/>
       <x:c r="B43" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C43" s="10">
         <x:v>3400</x:v>
@@ -7512,16 +7515,16 @@
         <x:v>9243.9300000000003</x:v>
       </x:c>
       <x:c r="F43" s="14" t="s">
-        <x:v>296</x:v>
-      </x:c>
-      <x:c r="G43">
-        <x:v>1</x:v>
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="G43" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:7">
       <x:c r="A44" s="2"/>
       <x:c r="B44" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C44" s="10">
         <x:v>2850</x:v>
@@ -7534,16 +7537,16 @@
         <x:v>7748.5900000000001</x:v>
       </x:c>
       <x:c r="F44" s="14" t="s">
-        <x:v>255</x:v>
-      </x:c>
-      <x:c r="G44">
-        <x:v>1</x:v>
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="G44" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:7">
       <x:c r="A45" s="2"/>
       <x:c r="B45" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C45" s="10">
         <x:v>2730</x:v>
@@ -7556,16 +7559,16 @@
         <x:v>7422.3299999999999</x:v>
       </x:c>
       <x:c r="F45" s="14" t="s">
-        <x:v>291</x:v>
-      </x:c>
-      <x:c r="G45">
-        <x:v>1</x:v>
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="G45" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:7">
       <x:c r="A46" s="2"/>
       <x:c r="B46" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C46" s="10">
         <x:v>2730</x:v>
@@ -7578,16 +7581,16 @@
         <x:v>7422.3299999999999</x:v>
       </x:c>
       <x:c r="F46" s="14" t="s">
-        <x:v>218</x:v>
-      </x:c>
-      <x:c r="G46">
-        <x:v>1</x:v>
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="G46" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:7">
       <x:c r="A47" s="2"/>
       <x:c r="B47" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C47" s="10">
         <x:v>2600</x:v>
@@ -7600,16 +7603,16 @@
         <x:v>7068.8900000000003</x:v>
       </x:c>
       <x:c r="F47" s="14" t="s">
-        <x:v>303</x:v>
-      </x:c>
-      <x:c r="G47">
-        <x:v>1</x:v>
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="G47" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:7">
       <x:c r="A48" s="2"/>
       <x:c r="B48" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C48" s="10">
         <x:v>2520</x:v>
@@ -7622,16 +7625,16 @@
         <x:v>6851.3800000000001</x:v>
       </x:c>
       <x:c r="F48" s="14" t="s">
-        <x:v>247</x:v>
-      </x:c>
-      <x:c r="G48">
-        <x:v>1</x:v>
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="G48" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:7">
       <x:c r="A49" s="2"/>
       <x:c r="B49" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C49" s="10">
         <x:v>2340</x:v>
@@ -7644,16 +7647,16 @@
         <x:v>6362</x:v>
       </x:c>
       <x:c r="F49" s="14" t="s">
-        <x:v>271</x:v>
-      </x:c>
-      <x:c r="G49">
-        <x:v>1</x:v>
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="G49" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:7">
       <x:c r="A50" s="2"/>
       <x:c r="B50" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C50" s="10">
         <x:v>2170</x:v>
@@ -7666,16 +7669,16 @@
         <x:v>5899.8000000000002</x:v>
       </x:c>
       <x:c r="F50" s="14" t="s">
-        <x:v>212</x:v>
-      </x:c>
-      <x:c r="G50">
-        <x:v>1</x:v>
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="G50" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:7">
       <x:c r="A51" s="2"/>
       <x:c r="B51" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C51" s="10">
         <x:v>2100</x:v>
@@ -7688,16 +7691,16 @@
         <x:v>5709.4899999999998</x:v>
       </x:c>
       <x:c r="F51" s="14" t="s">
-        <x:v>319</x:v>
-      </x:c>
-      <x:c r="G51">
-        <x:v>1</x:v>
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="G51" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:7">
       <x:c r="A52" s="2"/>
       <x:c r="B52" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C52" s="10">
         <x:v>2090</x:v>
@@ -7710,16 +7713,16 @@
         <x:v>5682.3000000000002</x:v>
       </x:c>
       <x:c r="F52" s="14" t="s">
-        <x:v>293</x:v>
-      </x:c>
-      <x:c r="G52">
-        <x:v>1</x:v>
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="G52" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:7">
       <x:c r="A53" s="2"/>
       <x:c r="B53" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C53" s="10">
         <x:v>1910</x:v>
@@ -7732,10 +7735,10 @@
         <x:v>5192.9099999999999</x:v>
       </x:c>
       <x:c r="F53" s="14" t="s">
-        <x:v>229</x:v>
-      </x:c>
-      <x:c r="G53">
-        <x:v>1</x:v>
+        <x:v>318</x:v>
+      </x:c>
+      <x:c r="G53" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -7801,8 +7804,8 @@
   <x:sheetPr codeName="Sheet6"/>
   <x:dimension ref="A3:G53"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="G1" activeCellId="0" sqref="G1:G1048576"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="I8" activeCellId="0" sqref="I8:I8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
@@ -7812,33 +7815,33 @@
     <x:col min="4" max="4" width="15.1640625" style="2" customWidth="1"/>
     <x:col min="5" max="5" width="25.6640625" style="2" customWidth="1"/>
     <x:col min="6" max="6" width="34.83203125" style="2" customWidth="1"/>
-    <x:col min="7" max="7" width="8.5" style="1" customWidth="1"/>
+    <x:col min="7" max="7" width="8.5" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="3" spans="2:7">
       <x:c r="B3" s="2" t="s">
-        <x:v>164</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C3" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D3" s="8" t="s">
-        <x:v>168</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E3" s="8" t="s">
-        <x:v>161</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="F3" s="8" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="G3" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="G3" t="s">
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="2"/>
       <x:c r="B4" s="8" t="s">
-        <x:v>165</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C4" s="10">
         <x:f>1210*10</x:f>
@@ -7852,16 +7855,16 @@
         <x:v>31456.549999999999</x:v>
       </x:c>
       <x:c r="F4" s="14" t="s">
-        <x:v>297</x:v>
-      </x:c>
-      <x:c r="G4" s="1">
-        <x:v>1</x:v>
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="G4" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="2"/>
       <x:c r="B5" s="8" t="s">
-        <x:v>166</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C5" s="10">
         <x:v>11570</x:v>
@@ -7874,16 +7877,16 @@
         <x:v>30078.700000000001</x:v>
       </x:c>
       <x:c r="F5" s="14" t="s">
-        <x:v>341</x:v>
-      </x:c>
-      <x:c r="G5" s="1">
-        <x:v>1</x:v>
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="G5" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="2"/>
       <x:c r="B6" s="8" t="s">
-        <x:v>166</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C6" s="10">
         <x:v>11340</x:v>
@@ -7896,16 +7899,16 @@
         <x:v>29480.77</x:v>
       </x:c>
       <x:c r="F6" s="14" t="s">
-        <x:v>339</x:v>
-      </x:c>
-      <x:c r="G6" s="1">
-        <x:v>1</x:v>
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="G6" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="2"/>
       <x:c r="B7" s="8" t="s">
-        <x:v>165</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C7" s="8">
         <x:v>10480</x:v>
@@ -7918,16 +7921,16 @@
         <x:v>27245.009999999998</x:v>
       </x:c>
       <x:c r="F7" s="14" t="s">
-        <x:v>220</x:v>
-      </x:c>
-      <x:c r="G7" s="1">
-        <x:v>1</x:v>
+        <x:v>328</x:v>
+      </x:c>
+      <x:c r="G7" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="2"/>
       <x:c r="B8" s="8" t="s">
-        <x:v>165</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C8" s="8">
         <x:v>10060</x:v>
@@ -7940,16 +7943,16 @@
         <x:v>26153.130000000001</x:v>
       </x:c>
       <x:c r="F8" s="14" t="s">
-        <x:v>235</x:v>
-      </x:c>
-      <x:c r="G8" s="1">
-        <x:v>1</x:v>
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="G8" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="2"/>
       <x:c r="B9" s="8" t="s">
-        <x:v>166</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C9" s="8">
         <x:v>9770</x:v>
@@ -7962,16 +7965,16 @@
         <x:v>25399.209999999999</x:v>
       </x:c>
       <x:c r="F9" s="14" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="G9" s="1">
-        <x:v>1</x:v>
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="G9" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="2"/>
       <x:c r="B10" s="8" t="s">
-        <x:v>167</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C10" s="8">
         <x:v>9270</x:v>
@@ -7984,16 +7987,16 @@
         <x:v>24099.360000000001</x:v>
       </x:c>
       <x:c r="F10" s="14" t="s">
-        <x:v>278</x:v>
-      </x:c>
-      <x:c r="G10" s="1">
-        <x:v>1</x:v>
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="G10" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="2"/>
       <x:c r="B11" s="8" t="s">
-        <x:v>166</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C11" s="8">
         <x:v>8020</x:v>
@@ -8006,16 +8009,16 @@
         <x:v>20849.709999999999</x:v>
       </x:c>
       <x:c r="F11" s="14" t="s">
-        <x:v>333</x:v>
-      </x:c>
-      <x:c r="G11" s="1">
-        <x:v>1</x:v>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="G11" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="2"/>
       <x:c r="B12" s="8" t="s">
-        <x:v>166</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C12" s="8">
         <x:v>6820</x:v>
@@ -8028,16 +8031,16 @@
         <x:v>17730.049999999999</x:v>
       </x:c>
       <x:c r="F12" s="14" t="s">
-        <x:v>256</x:v>
-      </x:c>
-      <x:c r="G12" s="1">
-        <x:v>1</x:v>
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="G12" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="2"/>
       <x:c r="B13" s="8" t="s">
-        <x:v>166</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C13" s="8">
         <x:v>6110</x:v>
@@ -8050,16 +8053,16 @@
         <x:v>15884.26</x:v>
       </x:c>
       <x:c r="F13" s="14" t="s">
-        <x:v>234</x:v>
-      </x:c>
-      <x:c r="G13" s="1">
-        <x:v>1</x:v>
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="G13" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="2"/>
       <x:c r="B14" s="8" t="s">
-        <x:v>166</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C14" s="8">
         <x:v>10540</x:v>
@@ -8072,16 +8075,16 @@
         <x:v>27400.990000000002</x:v>
       </x:c>
       <x:c r="F14" s="14" t="s">
-        <x:v>304</x:v>
-      </x:c>
-      <x:c r="G14" s="1">
-        <x:v>1</x:v>
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="G14" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7">
       <x:c r="A15" s="2"/>
       <x:c r="B15" s="8" t="s">
-        <x:v>165</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C15" s="8">
         <x:v>9820</x:v>
@@ -8094,16 +8097,16 @@
         <x:v>25529.200000000001</x:v>
       </x:c>
       <x:c r="F15" s="14" t="s">
-        <x:v>243</x:v>
-      </x:c>
-      <x:c r="G15" s="1">
-        <x:v>1</x:v>
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="G15" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7">
       <x:c r="A16" s="2"/>
       <x:c r="B16" s="8" t="s">
-        <x:v>166</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C16" s="8">
         <x:v>9050</x:v>
@@ -8116,16 +8119,16 @@
         <x:v>23527.419999999998</x:v>
       </x:c>
       <x:c r="F16" s="14" t="s">
-        <x:v>344</x:v>
-      </x:c>
-      <x:c r="G16" s="1">
-        <x:v>1</x:v>
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="G16" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7">
       <x:c r="A17" s="2"/>
       <x:c r="B17" s="8" t="s">
-        <x:v>166</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C17" s="8">
         <x:v>8830</x:v>
@@ -8138,16 +8141,16 @@
         <x:v>22955.48</x:v>
       </x:c>
       <x:c r="F17" s="14" t="s">
-        <x:v>241</x:v>
-      </x:c>
-      <x:c r="G17" s="1">
-        <x:v>1</x:v>
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="G17" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7">
       <x:c r="A18" s="2"/>
       <x:c r="B18" s="8" t="s">
-        <x:v>165</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C18" s="8">
         <x:v>8760</x:v>
@@ -8160,16 +8163,16 @@
         <x:v>22773.5</x:v>
       </x:c>
       <x:c r="F18" s="14" t="s">
-        <x:v>347</x:v>
-      </x:c>
-      <x:c r="G18" s="1">
-        <x:v>1</x:v>
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="G18" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:7">
       <x:c r="A19" s="2"/>
       <x:c r="B19" s="8" t="s">
-        <x:v>165</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C19" s="8">
         <x:v>8500</x:v>
@@ -8182,16 +8185,16 @@
         <x:v>22097.580000000002</x:v>
       </x:c>
       <x:c r="F19" s="14" t="s">
-        <x:v>308</x:v>
-      </x:c>
-      <x:c r="G19" s="1">
-        <x:v>1</x:v>
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="G19" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:7">
       <x:c r="A20" s="2"/>
       <x:c r="B20" s="8" t="s">
-        <x:v>167</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C20" s="8">
         <x:v>8320</x:v>
@@ -8204,16 +8207,16 @@
         <x:v>21629.630000000001</x:v>
       </x:c>
       <x:c r="F20" s="14" t="s">
-        <x:v>258</x:v>
-      </x:c>
-      <x:c r="G20" s="1">
-        <x:v>1</x:v>
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="G20" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7">
       <x:c r="A21" s="2"/>
       <x:c r="B21" s="8" t="s">
-        <x:v>165</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C21" s="8">
         <x:v>7960</x:v>
@@ -8226,16 +8229,16 @@
         <x:v>20693.73</x:v>
       </x:c>
       <x:c r="F21" s="14" t="s">
-        <x:v>324</x:v>
-      </x:c>
-      <x:c r="G21" s="1">
-        <x:v>1</x:v>
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="G21" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:7">
       <x:c r="A22" s="2"/>
       <x:c r="B22" s="8" t="s">
-        <x:v>165</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C22" s="8">
         <x:v>7380</x:v>
@@ -8248,16 +8251,16 @@
         <x:v>19185.889999999999</x:v>
       </x:c>
       <x:c r="F22" s="14" t="s">
-        <x:v>320</x:v>
-      </x:c>
-      <x:c r="G22" s="1">
-        <x:v>1</x:v>
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="G22" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:7">
       <x:c r="A23" s="2"/>
       <x:c r="B23" s="8" t="s">
-        <x:v>166</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C23" s="8">
         <x:v>7040</x:v>
@@ -8270,16 +8273,16 @@
         <x:v>18301.990000000002</x:v>
       </x:c>
       <x:c r="F23" s="14" t="s">
-        <x:v>270</x:v>
-      </x:c>
-      <x:c r="G23" s="1">
-        <x:v>1</x:v>
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="G23" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:7">
       <x:c r="A24" s="2"/>
       <x:c r="B24" s="8" t="s">
-        <x:v>166</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C24" s="8">
         <x:v>6990</x:v>
@@ -8292,16 +8295,16 @@
         <x:v>18172.009999999998</x:v>
       </x:c>
       <x:c r="F24" s="14" t="s">
-        <x:v>335</x:v>
-      </x:c>
-      <x:c r="G24" s="1">
-        <x:v>1</x:v>
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="G24" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:7">
       <x:c r="A25" s="2"/>
       <x:c r="B25" s="8" t="s">
-        <x:v>165</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C25" s="8">
         <x:v>6910</x:v>
@@ -8314,16 +8317,16 @@
         <x:v>17964.029999999999</x:v>
       </x:c>
       <x:c r="F25" s="14" t="s">
-        <x:v>282</x:v>
-      </x:c>
-      <x:c r="G25" s="1">
-        <x:v>1</x:v>
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="G25" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:7">
       <x:c r="A26" s="2"/>
       <x:c r="B26" s="8" t="s">
-        <x:v>166</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C26" s="8">
         <x:v>6910</x:v>
@@ -8336,16 +8339,16 @@
         <x:v>17964.029999999999</x:v>
       </x:c>
       <x:c r="F26" s="14" t="s">
-        <x:v>328</x:v>
-      </x:c>
-      <x:c r="G26" s="1">
-        <x:v>1</x:v>
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="G26" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7">
       <x:c r="A27" s="2"/>
       <x:c r="B27" s="8" t="s">
-        <x:v>166</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C27" s="8">
         <x:v>6800</x:v>
@@ -8358,16 +8361,16 @@
         <x:v>17678.060000000001</x:v>
       </x:c>
       <x:c r="F27" s="14" t="s">
-        <x:v>343</x:v>
-      </x:c>
-      <x:c r="G27" s="1">
-        <x:v>1</x:v>
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="G27" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:7">
       <x:c r="A28" s="2"/>
       <x:c r="B28" s="8" t="s">
-        <x:v>166</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C28" s="8">
         <x:v>6620</x:v>
@@ -8380,16 +8383,16 @@
         <x:v>17210.110000000001</x:v>
       </x:c>
       <x:c r="F28" s="14" t="s">
-        <x:v>292</x:v>
-      </x:c>
-      <x:c r="G28" s="1">
-        <x:v>1</x:v>
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="G28" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:7">
       <x:c r="A29" s="2"/>
       <x:c r="B29" s="8" t="s">
-        <x:v>166</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C29" s="8">
         <x:v>6420</x:v>
@@ -8402,16 +8405,16 @@
         <x:v>16690.169999999998</x:v>
       </x:c>
       <x:c r="F29" s="14" t="s">
-        <x:v>281</x:v>
-      </x:c>
-      <x:c r="G29" s="1">
-        <x:v>1</x:v>
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="G29" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:7">
       <x:c r="A30" s="2"/>
       <x:c r="B30" s="8" t="s">
-        <x:v>167</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C30" s="8">
         <x:v>6310</x:v>
@@ -8424,16 +8427,16 @@
         <x:v>16404.200000000001</x:v>
       </x:c>
       <x:c r="F30" s="14" t="s">
-        <x:v>326</x:v>
-      </x:c>
-      <x:c r="G30" s="1">
-        <x:v>1</x:v>
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="G30" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:7">
       <x:c r="A31" s="2"/>
       <x:c r="B31" s="8" t="s">
-        <x:v>166</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C31" s="8">
         <x:v>6280</x:v>
@@ -8446,16 +8449,16 @@
         <x:v>16326.209999999999</x:v>
       </x:c>
       <x:c r="F31" s="14" t="s">
-        <x:v>275</x:v>
-      </x:c>
-      <x:c r="G31" s="1">
-        <x:v>1</x:v>
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="G31" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:7">
       <x:c r="A32" s="2"/>
       <x:c r="B32" s="8" t="s">
-        <x:v>166</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C32" s="8">
         <x:v>6240</x:v>
@@ -8468,16 +8471,16 @@
         <x:v>16222.219999999999</x:v>
       </x:c>
       <x:c r="F32" s="14" t="s">
-        <x:v>233</x:v>
-      </x:c>
-      <x:c r="G32" s="1">
-        <x:v>1</x:v>
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="G32" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:7">
       <x:c r="A33" s="2"/>
       <x:c r="B33" s="8" t="s">
-        <x:v>166</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C33" s="8">
         <x:v>6240</x:v>
@@ -8490,16 +8493,16 @@
         <x:v>16222.219999999999</x:v>
       </x:c>
       <x:c r="F33" s="14" t="s">
-        <x:v>262</x:v>
-      </x:c>
-      <x:c r="G33" s="1">
-        <x:v>1</x:v>
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="G33" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:7">
       <x:c r="A34" s="2"/>
       <x:c r="B34" s="8" t="s">
-        <x:v>166</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C34" s="8">
         <x:v>6170</x:v>
@@ -8512,16 +8515,16 @@
         <x:v>16040.24</x:v>
       </x:c>
       <x:c r="F34" s="14" t="s">
-        <x:v>348</x:v>
-      </x:c>
-      <x:c r="G34" s="1">
-        <x:v>1</x:v>
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="G34" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:7">
       <x:c r="A35" s="2"/>
       <x:c r="B35" s="8" t="s">
-        <x:v>166</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C35" s="8">
         <x:v>6140</x:v>
@@ -8534,16 +8537,16 @@
         <x:v>15962.25</x:v>
       </x:c>
       <x:c r="F35" s="14" t="s">
-        <x:v>206</x:v>
-      </x:c>
-      <x:c r="G35" s="1">
-        <x:v>1</x:v>
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="G35" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:7">
       <x:c r="A36" s="2"/>
       <x:c r="B36" s="8" t="s">
-        <x:v>165</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C36" s="8">
         <x:v>6090</x:v>
@@ -8556,16 +8559,16 @@
         <x:v>15832.26</x:v>
       </x:c>
       <x:c r="F36" s="14" t="s">
-        <x:v>312</x:v>
-      </x:c>
-      <x:c r="G36" s="1">
-        <x:v>1</x:v>
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="G36" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:7">
       <x:c r="A37" s="2"/>
       <x:c r="B37" s="8" t="s">
-        <x:v>165</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C37" s="8">
         <x:v>5990</x:v>
@@ -8578,16 +8581,16 @@
         <x:v>15572.290000000001</x:v>
       </x:c>
       <x:c r="F37" s="14" t="s">
-        <x:v>273</x:v>
-      </x:c>
-      <x:c r="G37" s="1">
-        <x:v>1</x:v>
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="G37" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:7">
       <x:c r="A38" s="2"/>
       <x:c r="B38" s="8" t="s">
-        <x:v>166</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C38" s="8">
         <x:v>5980</x:v>
@@ -8600,16 +8603,16 @@
         <x:v>15546.290000000001</x:v>
       </x:c>
       <x:c r="F38" s="14" t="s">
-        <x:v>299</x:v>
-      </x:c>
-      <x:c r="G38" s="1">
-        <x:v>1</x:v>
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="G38" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:7">
       <x:c r="A39" s="2"/>
       <x:c r="B39" s="8" t="s">
-        <x:v>166</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C39" s="8">
         <x:v>5940</x:v>
@@ -8622,16 +8625,16 @@
         <x:v>15442.309999999999</x:v>
       </x:c>
       <x:c r="F39" s="14" t="s">
-        <x:v>338</x:v>
-      </x:c>
-      <x:c r="G39" s="1">
-        <x:v>1</x:v>
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="G39" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:7">
       <x:c r="A40" s="2"/>
       <x:c r="B40" s="8" t="s">
-        <x:v>165</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C40" s="8">
         <x:v>5800</x:v>
@@ -8644,16 +8647,16 @@
         <x:v>15078.35</x:v>
       </x:c>
       <x:c r="F40" s="14" t="s">
-        <x:v>340</x:v>
-      </x:c>
-      <x:c r="G40" s="1">
-        <x:v>1</x:v>
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="G40" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:7">
       <x:c r="A41" s="2"/>
       <x:c r="B41" s="8" t="s">
-        <x:v>166</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C41" s="8">
         <x:v>5780</x:v>
@@ -8666,16 +8669,16 @@
         <x:v>15026.35</x:v>
       </x:c>
       <x:c r="F41" s="14" t="s">
-        <x:v>345</x:v>
-      </x:c>
-      <x:c r="G41" s="1">
-        <x:v>1</x:v>
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="G41" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:7">
       <x:c r="A42" s="2"/>
       <x:c r="B42" s="8" t="s">
-        <x:v>165</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C42" s="8">
         <x:v>5750</x:v>
@@ -8688,16 +8691,16 @@
         <x:v>14948.360000000001</x:v>
       </x:c>
       <x:c r="F42" s="14" t="s">
-        <x:v>277</x:v>
-      </x:c>
-      <x:c r="G42" s="1">
-        <x:v>1</x:v>
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="G42" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:7">
       <x:c r="A43" s="2"/>
       <x:c r="B43" s="8" t="s">
-        <x:v>165</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C43" s="8">
         <x:v>5560</x:v>
@@ -8710,16 +8713,16 @@
         <x:v>14454.41</x:v>
       </x:c>
       <x:c r="F43" s="14" t="s">
-        <x:v>286</x:v>
-      </x:c>
-      <x:c r="G43" s="1">
-        <x:v>1</x:v>
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="G43" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:7">
       <x:c r="A44" s="2"/>
       <x:c r="B44" s="8" t="s">
-        <x:v>166</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C44" s="8">
         <x:v>5210</x:v>
@@ -8732,16 +8735,16 @@
         <x:v>13544.51</x:v>
       </x:c>
       <x:c r="F44" s="14" t="s">
-        <x:v>227</x:v>
-      </x:c>
-      <x:c r="G44" s="1">
-        <x:v>1</x:v>
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="G44" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:7">
       <x:c r="A45" s="2"/>
       <x:c r="B45" s="8" t="s">
-        <x:v>165</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C45" s="8">
         <x:v>5500</x:v>
@@ -8754,16 +8757,16 @@
         <x:v>14298.43</x:v>
       </x:c>
       <x:c r="F45" s="14" t="s">
-        <x:v>254</x:v>
-      </x:c>
-      <x:c r="G45" s="1">
-        <x:v>1</x:v>
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="G45" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:7">
       <x:c r="A46" s="2"/>
       <x:c r="B46" s="8" t="s">
-        <x:v>165</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C46" s="8">
         <x:v>5500</x:v>
@@ -8776,16 +8779,16 @@
         <x:v>14298.43</x:v>
       </x:c>
       <x:c r="F46" s="14" t="s">
-        <x:v>309</x:v>
-      </x:c>
-      <x:c r="G46" s="1">
-        <x:v>1</x:v>
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="G46" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:7">
       <x:c r="A47" s="2"/>
       <x:c r="B47" s="8" t="s">
-        <x:v>166</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C47" s="8">
         <x:v>5480</x:v>
@@ -8798,16 +8801,16 @@
         <x:v>14246.440000000001</x:v>
       </x:c>
       <x:c r="F47" s="14" t="s">
-        <x:v>274</x:v>
-      </x:c>
-      <x:c r="G47" s="1">
-        <x:v>1</x:v>
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="G47" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:7">
       <x:c r="A48" s="2"/>
       <x:c r="B48" s="8" t="s">
-        <x:v>165</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C48" s="8">
         <x:v>5420</x:v>
@@ -8820,16 +8823,16 @@
         <x:v>14090.450000000001</x:v>
       </x:c>
       <x:c r="F48" s="14" t="s">
-        <x:v>249</x:v>
-      </x:c>
-      <x:c r="G48" s="1">
-        <x:v>1</x:v>
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="G48" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:7">
       <x:c r="A49" s="2"/>
       <x:c r="B49" s="8" t="s">
-        <x:v>167</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C49" s="8">
         <x:v>5410</x:v>
@@ -8842,16 +8845,16 @@
         <x:v>14064.459999999999</x:v>
       </x:c>
       <x:c r="F49" s="14" t="s">
-        <x:v>223</x:v>
-      </x:c>
-      <x:c r="G49" s="1">
-        <x:v>1</x:v>
+        <x:v>319</x:v>
+      </x:c>
+      <x:c r="G49" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:7">
       <x:c r="A50" s="2"/>
       <x:c r="B50" s="8" t="s">
-        <x:v>166</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C50" s="8">
         <x:v>5390</x:v>
@@ -8864,16 +8867,16 @@
         <x:v>14012.459999999999</x:v>
       </x:c>
       <x:c r="F50" s="14" t="s">
-        <x:v>272</x:v>
-      </x:c>
-      <x:c r="G50" s="1">
-        <x:v>1</x:v>
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="G50" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:7">
       <x:c r="A51" s="2"/>
       <x:c r="B51" s="8" t="s">
-        <x:v>167</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C51" s="8">
         <x:v>5390</x:v>
@@ -8886,16 +8889,16 @@
         <x:v>14012.459999999999</x:v>
       </x:c>
       <x:c r="F51" s="14" t="s">
-        <x:v>280</x:v>
-      </x:c>
-      <x:c r="G51" s="1">
-        <x:v>1</x:v>
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="G51" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:7">
       <x:c r="A52" s="2"/>
       <x:c r="B52" s="8" t="s">
-        <x:v>165</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C52" s="8">
         <x:v>5320</x:v>
@@ -8908,16 +8911,16 @@
         <x:v>13830.48</x:v>
       </x:c>
       <x:c r="F52" s="14" t="s">
-        <x:v>290</x:v>
-      </x:c>
-      <x:c r="G52" s="1">
-        <x:v>1</x:v>
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="G52" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:7">
       <x:c r="A53" s="2"/>
       <x:c r="B53" s="8" t="s">
-        <x:v>165</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C53" s="8">
         <x:v>5290</x:v>
@@ -8930,10 +8933,10 @@
         <x:v>13752.49</x:v>
       </x:c>
       <x:c r="F53" s="14" t="s">
-        <x:v>346</x:v>
-      </x:c>
-      <x:c r="G53" s="1">
-        <x:v>1</x:v>
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="G53" t="s">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
